--- a/Arrival_end_change_peak_times.xlsx
+++ b/Arrival_end_change_peak_times.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:K577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -498,7 +498,17 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Peak_Pressure</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Peak_time</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Peak_index</t>
         </is>
       </c>
     </row>
@@ -528,7 +538,13 @@
         <v>132</v>
       </c>
       <c r="I2" t="n">
+        <v>591827.625</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.0006695743</v>
+      </c>
+      <c r="K2" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +573,13 @@
         <v>1858</v>
       </c>
       <c r="I3" t="n">
+        <v>113668.39844</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.0158798229</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1590</v>
       </c>
     </row>
     <row r="4">
@@ -586,7 +608,13 @@
         <v>2455</v>
       </c>
       <c r="I4" t="n">
+        <v>110072.21094</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.0216297656</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2165</v>
       </c>
     </row>
     <row r="5">
@@ -615,7 +643,13 @@
         <v>3052</v>
       </c>
       <c r="I5" t="n">
+        <v>107787.85156</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.0274298247</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2745</v>
       </c>
     </row>
     <row r="6">
@@ -644,7 +678,13 @@
         <v>3650</v>
       </c>
       <c r="I6" t="n">
+        <v>106665.80469</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.0332799591</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3330</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +713,13 @@
         <v>4248</v>
       </c>
       <c r="I7" t="n">
+        <v>105719.59375</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0391499884</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3917</v>
       </c>
     </row>
     <row r="8">
@@ -702,7 +748,13 @@
         <v>4846</v>
       </c>
       <c r="I8" t="n">
+        <v>105030.91406</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.0450398661</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4506</v>
       </c>
     </row>
     <row r="9">
@@ -731,7 +783,13 @@
         <v>5445</v>
       </c>
       <c r="I9" t="n">
+        <v>104495.16406</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.0509396493</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5096</v>
       </c>
     </row>
     <row r="10">
@@ -760,7 +818,13 @@
         <v>6043</v>
       </c>
       <c r="I10" t="n">
+        <v>104108.375</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.0568596721</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5688</v>
       </c>
     </row>
     <row r="11">
@@ -789,7 +853,13 @@
         <v>6641</v>
       </c>
       <c r="I11" t="n">
+        <v>103792.02344</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.0627797693</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6280</v>
       </c>
     </row>
     <row r="12">
@@ -818,7 +888,13 @@
         <v>7240</v>
       </c>
       <c r="I12" t="n">
+        <v>103532.71094</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.06870978329999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6873</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +923,13 @@
         <v>674</v>
       </c>
       <c r="I13" t="n">
+        <v>147433.3125</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.004899831</v>
+      </c>
+      <c r="K13" t="n">
+        <v>492</v>
       </c>
     </row>
     <row r="14">
@@ -876,7 +958,13 @@
         <v>7839</v>
       </c>
       <c r="I14" t="n">
+        <v>103316.97656</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.074649699</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7467</v>
       </c>
     </row>
     <row r="15">
@@ -905,7 +993,13 @@
         <v>8437</v>
       </c>
       <c r="I15" t="n">
+        <v>103137.97656</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.0805896148</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8061</v>
       </c>
     </row>
     <row r="16">
@@ -934,7 +1028,13 @@
         <v>8737</v>
       </c>
       <c r="I16" t="n">
+        <v>103058.85156</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.08355978880000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8358</v>
       </c>
     </row>
     <row r="17">
@@ -963,7 +1063,13 @@
         <v>1263</v>
       </c>
       <c r="I17" t="n">
+        <v>121033.5625</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.0102696139</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1029</v>
       </c>
     </row>
     <row r="18">
@@ -992,7 +1098,13 @@
         <v>54</v>
       </c>
       <c r="I18" t="n">
+        <v>2829861.75</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.0003499947</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -1021,7 +1133,13 @@
         <v>1592</v>
       </c>
       <c r="I19" t="n">
+        <v>143638.5</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.0117299976</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1175</v>
       </c>
     </row>
     <row r="20">
@@ -1050,7 +1168,13 @@
         <v>2180</v>
       </c>
       <c r="I20" t="n">
+        <v>128861.65625</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.0170197971</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1704</v>
       </c>
     </row>
     <row r="21">
@@ -1079,7 +1203,13 @@
         <v>2771</v>
       </c>
       <c r="I21" t="n">
+        <v>121571.08594</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.0224798732</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2250</v>
       </c>
     </row>
     <row r="22">
@@ -1108,7 +1238,13 @@
         <v>3365</v>
       </c>
       <c r="I22" t="n">
+        <v>117100.38281</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.0280599836</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2808</v>
       </c>
     </row>
     <row r="23">
@@ -1137,7 +1273,13 @@
         <v>3961</v>
       </c>
       <c r="I23" t="n">
+        <v>114680.77344</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.0336997099</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3372</v>
       </c>
     </row>
     <row r="24">
@@ -1166,7 +1308,13 @@
         <v>4557</v>
       </c>
       <c r="I24" t="n">
+        <v>112516.38281</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.0394097529</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3943</v>
       </c>
     </row>
     <row r="25">
@@ -1195,7 +1343,13 @@
         <v>5154</v>
       </c>
       <c r="I25" t="n">
+        <v>110880.39844</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.045159813</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4518</v>
       </c>
     </row>
     <row r="26">
@@ -1224,7 +1378,13 @@
         <v>5751</v>
       </c>
       <c r="I26" t="n">
+        <v>109635.44531</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.0509399362</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5096</v>
       </c>
     </row>
     <row r="27">
@@ -1253,7 +1413,13 @@
         <v>6348</v>
       </c>
       <c r="I27" t="n">
+        <v>108501.60156</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.0567399152</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5676</v>
       </c>
     </row>
     <row r="28">
@@ -1282,7 +1448,13 @@
         <v>6945</v>
       </c>
       <c r="I28" t="n">
+        <v>107717.88281</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.0625699088</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6259</v>
       </c>
     </row>
     <row r="29">
@@ -1311,7 +1483,13 @@
         <v>466</v>
       </c>
       <c r="I29" t="n">
+        <v>336005.84375</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.0026698834</v>
+      </c>
+      <c r="K29" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -1340,7 +1518,13 @@
         <v>7543</v>
       </c>
       <c r="I30" t="n">
+        <v>107071.42969</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.0684099421</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6843</v>
       </c>
     </row>
     <row r="31">
@@ -1369,7 +1553,13 @@
         <v>8141</v>
       </c>
       <c r="I31" t="n">
+        <v>106645.21875</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.074259907</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7428</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1588,13 @@
         <v>8440</v>
       </c>
       <c r="I32" t="n">
+        <v>106414.59375</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.0771899819</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7721</v>
       </c>
     </row>
     <row r="33">
@@ -1427,7 +1623,13 @@
         <v>1013</v>
       </c>
       <c r="I33" t="n">
+        <v>179013.375</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.0068097934</v>
+      </c>
+      <c r="K33" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="34">
@@ -1456,7 +1658,13 @@
         <v>50</v>
       </c>
       <c r="I34" t="n">
+        <v>2992145</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.0003399208</v>
+      </c>
+      <c r="K34" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="35">
@@ -1485,7 +1693,13 @@
         <v>1565</v>
       </c>
       <c r="I35" t="n">
+        <v>148183.46875</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.0113699259</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1139</v>
       </c>
     </row>
     <row r="36">
@@ -1514,7 +1728,13 @@
         <v>2152</v>
       </c>
       <c r="I36" t="n">
+        <v>132251.09375</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.016589852</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1661</v>
       </c>
     </row>
     <row r="37">
@@ -1543,7 +1763,13 @@
         <v>2743</v>
       </c>
       <c r="I37" t="n">
+        <v>124138.66406</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.0220097322</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2203</v>
       </c>
     </row>
     <row r="38">
@@ -1572,7 +1798,13 @@
         <v>3336</v>
       </c>
       <c r="I38" t="n">
+        <v>118614.9375</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.0275599249</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2758</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1833,13 @@
         <v>3931</v>
       </c>
       <c r="I39" t="n">
+        <v>115248.66406</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.0331899673</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3321</v>
       </c>
     </row>
     <row r="40">
@@ -1630,7 +1868,13 @@
         <v>4527</v>
       </c>
       <c r="I40" t="n">
+        <v>112934.15625</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.0388898216</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3891</v>
       </c>
     </row>
     <row r="41">
@@ -1659,7 +1903,13 @@
         <v>5123</v>
       </c>
       <c r="I41" t="n">
+        <v>111188.94531</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.0446098968</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4463</v>
       </c>
     </row>
     <row r="42">
@@ -1688,7 +1938,13 @@
         <v>5720</v>
       </c>
       <c r="I42" t="n">
+        <v>110319.85156</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.0503698885</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5039</v>
       </c>
     </row>
     <row r="43">
@@ -1717,7 +1973,13 @@
         <v>6318</v>
       </c>
       <c r="I43" t="n">
+        <v>109262.46875</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.0561597422</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5618</v>
       </c>
     </row>
     <row r="44">
@@ -1746,7 +2008,13 @@
         <v>6915</v>
       </c>
       <c r="I44" t="n">
+        <v>108399.96094</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.0619698688</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6199</v>
       </c>
     </row>
     <row r="45">
@@ -1775,7 +2043,13 @@
         <v>450</v>
       </c>
       <c r="I45" t="n">
+        <v>370790.09375</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.0025299243</v>
+      </c>
+      <c r="K45" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="46">
@@ -1804,7 +2078,13 @@
         <v>7512</v>
       </c>
       <c r="I46" t="n">
+        <v>107654.19531</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.0677998215</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6782</v>
       </c>
     </row>
     <row r="47">
@@ -1833,7 +2113,13 @@
         <v>8110</v>
       </c>
       <c r="I47" t="n">
+        <v>107088.58594</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.0736399516</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7366</v>
       </c>
     </row>
     <row r="48">
@@ -1862,7 +2148,13 @@
         <v>8409</v>
       </c>
       <c r="I48" t="n">
+        <v>106774.46094</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.0765698999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7659</v>
       </c>
     </row>
     <row r="49">
@@ -1891,7 +2183,13 @@
         <v>989</v>
       </c>
       <c r="I49" t="n">
+        <v>188203.82812</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.0065397299</v>
+      </c>
+      <c r="K49" t="n">
+        <v>656</v>
       </c>
     </row>
     <row r="50">
@@ -1920,7 +2218,13 @@
         <v>48</v>
       </c>
       <c r="I50" t="n">
+        <v>3619006.25</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.0003199522</v>
+      </c>
+      <c r="K50" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -1949,7 +2253,13 @@
         <v>1542</v>
       </c>
       <c r="I51" t="n">
+        <v>152542.29688</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.0110698305</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1109</v>
       </c>
     </row>
     <row r="52">
@@ -1978,7 +2288,13 @@
         <v>2128</v>
       </c>
       <c r="I52" t="n">
+        <v>133983.54688</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.0162499864</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1627</v>
       </c>
     </row>
     <row r="53">
@@ -2007,7 +2323,13 @@
         <v>2718</v>
       </c>
       <c r="I53" t="n">
+        <v>125835.49219</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.0216198247</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2164</v>
       </c>
     </row>
     <row r="54">
@@ -2036,7 +2358,13 @@
         <v>3311</v>
       </c>
       <c r="I54" t="n">
+        <v>119999.02344</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.0271398276</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2716</v>
       </c>
     </row>
     <row r="55">
@@ -2065,7 +2393,13 @@
         <v>3906</v>
       </c>
       <c r="I55" t="n">
+        <v>116213.16406</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.0327599049</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3278</v>
       </c>
     </row>
     <row r="56">
@@ -2094,7 +2428,13 @@
         <v>4501</v>
       </c>
       <c r="I56" t="n">
+        <v>114124.22656</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.0384099782</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3843</v>
       </c>
     </row>
     <row r="57">
@@ -2123,7 +2463,13 @@
         <v>5097</v>
       </c>
       <c r="I57" t="n">
+        <v>112080.05469</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.0441299118</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4415</v>
       </c>
     </row>
     <row r="58">
@@ -2152,7 +2498,13 @@
         <v>5694</v>
       </c>
       <c r="I58" t="n">
+        <v>110711.97656</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.0498797707</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4990</v>
       </c>
     </row>
     <row r="59">
@@ -2181,7 +2533,13 @@
         <v>6291</v>
       </c>
       <c r="I59" t="n">
+        <v>109415.83594</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.0556799769</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5570</v>
       </c>
     </row>
     <row r="60">
@@ -2210,7 +2568,13 @@
         <v>6888</v>
       </c>
       <c r="I60" t="n">
+        <v>108630.40625</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.0614498518</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6147</v>
       </c>
     </row>
     <row r="61">
@@ -2239,7 +2603,13 @@
         <v>437</v>
       </c>
       <c r="I61" t="n">
+        <v>403127.375</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.0024197993</v>
+      </c>
+      <c r="K61" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="62">
@@ -2268,7 +2638,13 @@
         <v>7486</v>
       </c>
       <c r="I62" t="n">
+        <v>108055.60156</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.0672697201</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6729</v>
       </c>
     </row>
     <row r="63">
@@ -2297,7 +2673,13 @@
         <v>8083</v>
       </c>
       <c r="I63" t="n">
+        <v>107345.36719</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.07310993220000001</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7313</v>
       </c>
     </row>
     <row r="64">
@@ -2326,7 +2708,13 @@
         <v>8382</v>
       </c>
       <c r="I64" t="n">
+        <v>107162.53125</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.0760297924</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7605</v>
       </c>
     </row>
     <row r="65">
@@ -2355,7 +2743,13 @@
         <v>968</v>
       </c>
       <c r="I65" t="n">
+        <v>197055.07812</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.0063097682</v>
+      </c>
+      <c r="K65" t="n">
+        <v>633</v>
       </c>
     </row>
     <row r="66">
@@ -2384,7 +2778,13 @@
         <v>46</v>
       </c>
       <c r="I66" t="n">
+        <v>3508771</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.0003199682</v>
+      </c>
+      <c r="K66" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -2413,7 +2813,13 @@
         <v>1521</v>
       </c>
       <c r="I67" t="n">
+        <v>155607.51562</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.0107997674</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1082</v>
       </c>
     </row>
     <row r="68">
@@ -2442,7 +2848,13 @@
         <v>2106</v>
       </c>
       <c r="I68" t="n">
+        <v>136290.40625</v>
+      </c>
+      <c r="J68" t="n">
         <v>0.015929928</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1595</v>
       </c>
     </row>
     <row r="69">
@@ -2471,7 +2883,13 @@
         <v>2695</v>
       </c>
       <c r="I69" t="n">
+        <v>127017.16406</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.021259835</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2128</v>
       </c>
     </row>
     <row r="70">
@@ -2500,7 +2918,13 @@
         <v>3287</v>
       </c>
       <c r="I70" t="n">
+        <v>121284.66406</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.0267498046</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2677</v>
       </c>
     </row>
     <row r="71">
@@ -2529,7 +2953,13 @@
         <v>3882</v>
       </c>
       <c r="I71" t="n">
+        <v>117158.86719</v>
+      </c>
+      <c r="J71" t="n">
         <v>0.0323499292</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3237</v>
       </c>
     </row>
     <row r="72">
@@ -2558,7 +2988,13 @@
         <v>4477</v>
       </c>
       <c r="I72" t="n">
+        <v>114509.38281</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.0379899181</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3801</v>
       </c>
     </row>
     <row r="73">
@@ -2587,7 +3023,13 @@
         <v>5073</v>
       </c>
       <c r="I73" t="n">
+        <v>112545.125</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.0436998941</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4372</v>
       </c>
     </row>
     <row r="74">
@@ -2616,7 +3058,13 @@
         <v>5669</v>
       </c>
       <c r="I74" t="n">
+        <v>111462.0625</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.0494197346</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4944</v>
       </c>
     </row>
     <row r="75">
@@ -2645,7 +3093,13 @@
         <v>6266</v>
       </c>
       <c r="I75" t="n">
+        <v>110178.4375</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.0551898889</v>
+      </c>
+      <c r="K75" t="n">
+        <v>5521</v>
       </c>
     </row>
     <row r="76">
@@ -2674,7 +3128,13 @@
         <v>6863</v>
       </c>
       <c r="I76" t="n">
+        <v>109122.13281</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.0609798543</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6100</v>
       </c>
     </row>
     <row r="77">
@@ -2703,7 +3163,13 @@
         <v>426</v>
       </c>
       <c r="I77" t="n">
+        <v>439089.90625</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.0023196854</v>
+      </c>
+      <c r="K77" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="78">
@@ -2732,7 +3198,13 @@
         <v>7461</v>
       </c>
       <c r="I78" t="n">
+        <v>108280.33594</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.0667898804</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6681</v>
       </c>
     </row>
     <row r="79">
@@ -2761,7 +3233,13 @@
         <v>8058</v>
       </c>
       <c r="I79" t="n">
+        <v>107842.84375</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.0726096854</v>
+      </c>
+      <c r="K79" t="n">
+        <v>7263</v>
       </c>
     </row>
     <row r="80">
@@ -2790,7 +3268,13 @@
         <v>8357</v>
       </c>
       <c r="I80" t="n">
+        <v>107520.41406</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.0755299851</v>
+      </c>
+      <c r="K80" t="n">
+        <v>7555</v>
       </c>
     </row>
     <row r="81">
@@ -2819,7 +3303,13 @@
         <v>949</v>
       </c>
       <c r="I81" t="n">
+        <v>205507</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.0061099078</v>
+      </c>
+      <c r="K81" t="n">
+        <v>613</v>
       </c>
     </row>
     <row r="82">
@@ -2848,7 +3338,13 @@
         <v>44</v>
       </c>
       <c r="I82" t="n">
+        <v>3868159.75</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.0003099937</v>
+      </c>
+      <c r="K82" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -2877,7 +3373,13 @@
         <v>1502</v>
       </c>
       <c r="I83" t="n">
+        <v>159387.875</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.0105598159</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1058</v>
       </c>
     </row>
     <row r="84">
@@ -2906,7 +3408,13 @@
         <v>2085</v>
       </c>
       <c r="I84" t="n">
+        <v>139244.6875</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.0156299844</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1565</v>
       </c>
     </row>
     <row r="85">
@@ -2935,7 +3443,13 @@
         <v>2674</v>
       </c>
       <c r="I85" t="n">
+        <v>128144.6875</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.020959774</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2098</v>
       </c>
     </row>
     <row r="86">
@@ -2964,7 +3478,13 @@
         <v>3266</v>
       </c>
       <c r="I86" t="n">
+        <v>122728.28125</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.0264097545</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2643</v>
       </c>
     </row>
     <row r="87">
@@ -2993,7 +3513,13 @@
         <v>3860</v>
       </c>
       <c r="I87" t="n">
+        <v>118014.47656</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.0319898501</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3201</v>
       </c>
     </row>
     <row r="88">
@@ -3022,7 +3548,13 @@
         <v>4455</v>
       </c>
       <c r="I88" t="n">
+        <v>115263.09375</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.0376098044</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3763</v>
       </c>
     </row>
     <row r="89">
@@ -3051,7 +3583,13 @@
         <v>5051</v>
       </c>
       <c r="I89" t="n">
+        <v>113667.30469</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.0432897396</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4331</v>
       </c>
     </row>
     <row r="90">
@@ -3080,7 +3618,13 @@
         <v>5647</v>
       </c>
       <c r="I90" t="n">
+        <v>111558.78906</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.0490299128</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4905</v>
       </c>
     </row>
     <row r="91">
@@ -3109,7 +3653,13 @@
         <v>6244</v>
       </c>
       <c r="I91" t="n">
+        <v>110787.125</v>
+      </c>
+      <c r="J91" t="n">
         <v>0.0547697544</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5479</v>
       </c>
     </row>
     <row r="92">
@@ -3138,7 +3688,13 @@
         <v>6841</v>
       </c>
       <c r="I92" t="n">
+        <v>109729.625</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.0605499707</v>
+      </c>
+      <c r="K92" t="n">
+        <v>6057</v>
       </c>
     </row>
     <row r="93">
@@ -3167,7 +3723,13 @@
         <v>417</v>
       </c>
       <c r="I93" t="n">
+        <v>471456.59375</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.0022396436</v>
+      </c>
+      <c r="K93" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="94">
@@ -3196,7 +3758,13 @@
         <v>7438</v>
       </c>
       <c r="I94" t="n">
+        <v>108893.53906</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.0663497671</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6637</v>
       </c>
     </row>
     <row r="95">
@@ -3225,7 +3793,13 @@
         <v>8036</v>
       </c>
       <c r="I95" t="n">
+        <v>108089.97656</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.072169818</v>
+      </c>
+      <c r="K95" t="n">
+        <v>7219</v>
       </c>
     </row>
     <row r="96">
@@ -3254,7 +3828,13 @@
         <v>8334</v>
       </c>
       <c r="I96" t="n">
+        <v>107850.21094</v>
+      </c>
+      <c r="J96" t="n">
         <v>0.0750797242</v>
+      </c>
+      <c r="K96" t="n">
+        <v>7510</v>
       </c>
     </row>
     <row r="97">
@@ -3283,7 +3863,13 @@
         <v>933</v>
       </c>
       <c r="I97" t="n">
+        <v>214846.01562</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.0059298552</v>
+      </c>
+      <c r="K97" t="n">
+        <v>595</v>
       </c>
     </row>
     <row r="98">
@@ -3312,7 +3898,13 @@
         <v>43</v>
       </c>
       <c r="I98" t="n">
+        <v>4301432</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.0002999791</v>
+      </c>
+      <c r="K98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -3341,7 +3933,13 @@
         <v>1484</v>
       </c>
       <c r="I99" t="n">
+        <v>163628.60938</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.0103298416</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1035</v>
       </c>
     </row>
     <row r="100">
@@ -3370,7 +3968,13 @@
         <v>2066</v>
       </c>
       <c r="I100" t="n">
+        <v>141733.1875</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.0153598739</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1538</v>
       </c>
     </row>
     <row r="101">
@@ -3399,7 +4003,13 @@
         <v>2654</v>
       </c>
       <c r="I101" t="n">
+        <v>129617.77344</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.0206597578</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2068</v>
       </c>
     </row>
     <row r="102">
@@ -3428,7 +4038,13 @@
         <v>3246</v>
       </c>
       <c r="I102" t="n">
+        <v>123111.9375</v>
+      </c>
+      <c r="J102" t="n">
         <v>0.0260997098</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2612</v>
       </c>
     </row>
     <row r="103">
@@ -3457,7 +4073,13 @@
         <v>3839</v>
       </c>
       <c r="I103" t="n">
+        <v>119140.875</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.0316298679</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3165</v>
       </c>
     </row>
     <row r="104">
@@ -3486,7 +4108,13 @@
         <v>4434</v>
       </c>
       <c r="I104" t="n">
+        <v>115955.65625</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.037259955</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3728</v>
       </c>
     </row>
     <row r="105">
@@ -3515,7 +4143,13 @@
         <v>5029</v>
       </c>
       <c r="I105" t="n">
+        <v>113761.14844</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.0429297127</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4295</v>
       </c>
     </row>
     <row r="106">
@@ -3544,7 +4178,13 @@
         <v>5626</v>
       </c>
       <c r="I106" t="n">
+        <v>112298.78906</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.0486299656</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4865</v>
       </c>
     </row>
     <row r="107">
@@ -3573,7 +4213,13 @@
         <v>6222</v>
       </c>
       <c r="I107" t="n">
+        <v>111199.75</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.0543698482</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5439</v>
       </c>
     </row>
     <row r="108">
@@ -3602,7 +4248,13 @@
         <v>6819</v>
       </c>
       <c r="I108" t="n">
+        <v>110137.92969</v>
+      </c>
+      <c r="J108" t="n">
         <v>0.0601398796</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6016</v>
       </c>
     </row>
     <row r="109">
@@ -3631,7 +4283,13 @@
         <v>409</v>
       </c>
       <c r="I109" t="n">
+        <v>502720.96875</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.0021699471</v>
+      </c>
+      <c r="K109" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="110">
@@ -3660,7 +4318,13 @@
         <v>7416</v>
       </c>
       <c r="I110" t="n">
+        <v>109083.14844</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.06592991199999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>6595</v>
       </c>
     </row>
     <row r="111">
@@ -3689,7 +4353,13 @@
         <v>8014</v>
       </c>
       <c r="I111" t="n">
+        <v>108388.6875</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.07173987480000001</v>
+      </c>
+      <c r="K111" t="n">
+        <v>7176</v>
       </c>
     </row>
     <row r="112">
@@ -3718,7 +4388,13 @@
         <v>8312</v>
       </c>
       <c r="I112" t="n">
+        <v>107998.25</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.0746499076</v>
+      </c>
+      <c r="K112" t="n">
+        <v>7467</v>
       </c>
     </row>
     <row r="113">
@@ -3747,7 +4423,13 @@
         <v>917</v>
       </c>
       <c r="I113" t="n">
+        <v>222743.64062</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.0057698069</v>
+      </c>
+      <c r="K113" t="n">
+        <v>579</v>
       </c>
     </row>
     <row r="114">
@@ -3776,7 +4458,13 @@
         <v>41</v>
       </c>
       <c r="I114" t="n">
+        <v>4192531.25</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.000299992</v>
+      </c>
+      <c r="K114" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -3805,7 +4493,13 @@
         <v>1468</v>
       </c>
       <c r="I115" t="n">
+        <v>167086.8125</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.0101298457</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1015</v>
       </c>
     </row>
     <row r="116">
@@ -3834,7 +4528,13 @@
         <v>2049</v>
       </c>
       <c r="I116" t="n">
+        <v>142889.45312</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.0151297823</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1515</v>
       </c>
     </row>
     <row r="117">
@@ -3863,7 +4563,13 @@
         <v>2636</v>
       </c>
       <c r="I117" t="n">
+        <v>131802.46875</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.0203698203</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2039</v>
       </c>
     </row>
     <row r="118">
@@ -3892,7 +4598,13 @@
         <v>3227</v>
       </c>
       <c r="I118" t="n">
+        <v>124211.78125</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.0257997494</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2582</v>
       </c>
     </row>
     <row r="119">
@@ -3921,7 +4633,13 @@
         <v>3820</v>
       </c>
       <c r="I119" t="n">
+        <v>120414.52344</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.031309817</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3133</v>
       </c>
     </row>
     <row r="120">
@@ -3950,7 +4668,13 @@
         <v>4414</v>
       </c>
       <c r="I120" t="n">
+        <v>117068.5625</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.0369098522</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3693</v>
       </c>
     </row>
     <row r="121">
@@ -3979,7 +4703,13 @@
         <v>5010</v>
       </c>
       <c r="I121" t="n">
+        <v>114866.78125</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.0425696932</v>
+      </c>
+      <c r="K121" t="n">
+        <v>4259</v>
       </c>
     </row>
     <row r="122">
@@ -4008,7 +4738,13 @@
         <v>5606</v>
       </c>
       <c r="I122" t="n">
+        <v>113092.1875</v>
+      </c>
+      <c r="J122" t="n">
         <v>0.0482699685</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4829</v>
       </c>
     </row>
     <row r="123">
@@ -4037,7 +4773,13 @@
         <v>6202</v>
       </c>
       <c r="I123" t="n">
+        <v>111199.96094</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.054019969</v>
+      </c>
+      <c r="K123" t="n">
+        <v>5404</v>
       </c>
     </row>
     <row r="124">
@@ -4066,7 +4808,13 @@
         <v>6799</v>
       </c>
       <c r="I124" t="n">
+        <v>110176.91406</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.0597698204</v>
+      </c>
+      <c r="K124" t="n">
+        <v>5979</v>
       </c>
     </row>
     <row r="125">
@@ -4095,7 +4843,13 @@
         <v>403</v>
       </c>
       <c r="I125" t="n">
+        <v>541649.125</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.0020996472</v>
+      </c>
+      <c r="K125" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="126">
@@ -4124,7 +4878,13 @@
         <v>7396</v>
       </c>
       <c r="I126" t="n">
+        <v>109598.72656</v>
+      </c>
+      <c r="J126" t="n">
         <v>0.065549843</v>
+      </c>
+      <c r="K126" t="n">
+        <v>6557</v>
       </c>
     </row>
     <row r="127">
@@ -4153,7 +4913,13 @@
         <v>7993</v>
       </c>
       <c r="I127" t="n">
+        <v>108767.63281</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.0713499635</v>
+      </c>
+      <c r="K127" t="n">
+        <v>7137</v>
       </c>
     </row>
     <row r="128">
@@ -4182,7 +4948,13 @@
         <v>8292</v>
       </c>
       <c r="I128" t="n">
+        <v>108478.53906</v>
+      </c>
+      <c r="J128" t="n">
         <v>0.07425970580000001</v>
+      </c>
+      <c r="K128" t="n">
+        <v>7428</v>
       </c>
     </row>
     <row r="129">
@@ -4211,7 +4983,13 @@
         <v>902</v>
       </c>
       <c r="I129" t="n">
+        <v>230325.6875</v>
+      </c>
+      <c r="J129" t="n">
         <v>0.005629939</v>
+      </c>
+      <c r="K129" t="n">
+        <v>565</v>
       </c>
     </row>
     <row r="130">
@@ -4240,7 +5018,13 @@
         <v>41</v>
       </c>
       <c r="I130" t="n">
+        <v>4723623.5</v>
+      </c>
+      <c r="J130" t="n">
         <v>0.0002899173</v>
+      </c>
+      <c r="K130" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -4269,7 +5053,13 @@
         <v>1453</v>
       </c>
       <c r="I131" t="n">
+        <v>170277.01562</v>
+      </c>
+      <c r="J131" t="n">
         <v>0.009949957000000001</v>
+      </c>
+      <c r="K131" t="n">
+        <v>997</v>
       </c>
     </row>
     <row r="132">
@@ -4298,7 +5088,13 @@
         <v>2032</v>
       </c>
       <c r="I132" t="n">
+        <v>144927.9375</v>
+      </c>
+      <c r="J132" t="n">
         <v>0.014899753</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1492</v>
       </c>
     </row>
     <row r="133">
@@ -4327,7 +5123,13 @@
         <v>2619</v>
       </c>
       <c r="I133" t="n">
+        <v>132789.3125</v>
+      </c>
+      <c r="J133" t="n">
         <v>0.0201197658</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="134">
@@ -4356,7 +5158,13 @@
         <v>3210</v>
       </c>
       <c r="I134" t="n">
+        <v>125288.82031</v>
+      </c>
+      <c r="J134" t="n">
         <v>0.0255198516</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2554</v>
       </c>
     </row>
     <row r="135">
@@ -4385,7 +5193,13 @@
         <v>3803</v>
       </c>
       <c r="I135" t="n">
+        <v>120493.78125</v>
+      </c>
+      <c r="J135" t="n">
         <v>0.0310398806</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3106</v>
       </c>
     </row>
     <row r="136">
@@ -4414,7 +5228,13 @@
         <v>4397</v>
       </c>
       <c r="I136" t="n">
+        <v>117775.77344</v>
+      </c>
+      <c r="J136" t="n">
         <v>0.0366099328</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3663</v>
       </c>
     </row>
     <row r="137">
@@ -4443,7 +5263,13 @@
         <v>4992</v>
       </c>
       <c r="I137" t="n">
+        <v>115051.65625</v>
+      </c>
+      <c r="J137" t="n">
         <v>0.0422596969</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4228</v>
       </c>
     </row>
     <row r="138">
@@ -4472,7 +5298,13 @@
         <v>5588</v>
       </c>
       <c r="I138" t="n">
+        <v>113265.88281</v>
+      </c>
+      <c r="J138" t="n">
         <v>0.0479498133</v>
+      </c>
+      <c r="K138" t="n">
+        <v>4797</v>
       </c>
     </row>
     <row r="139">
@@ -4501,7 +5333,13 @@
         <v>6184</v>
       </c>
       <c r="I139" t="n">
+        <v>111895.66406</v>
+      </c>
+      <c r="J139" t="n">
         <v>0.0536699146</v>
+      </c>
+      <c r="K139" t="n">
+        <v>5369</v>
       </c>
     </row>
     <row r="140">
@@ -4530,7 +5368,13 @@
         <v>6781</v>
       </c>
       <c r="I140" t="n">
+        <v>110466.27344</v>
+      </c>
+      <c r="J140" t="n">
         <v>0.0594298802</v>
+      </c>
+      <c r="K140" t="n">
+        <v>5945</v>
       </c>
     </row>
     <row r="141">
@@ -4559,7 +5403,13 @@
         <v>397</v>
       </c>
       <c r="I141" t="n">
+        <v>569585</v>
+      </c>
+      <c r="J141" t="n">
         <v>0.0020497364</v>
+      </c>
+      <c r="K141" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="142">
@@ -4588,7 +5438,13 @@
         <v>7378</v>
       </c>
       <c r="I142" t="n">
+        <v>109846.28906</v>
+      </c>
+      <c r="J142" t="n">
         <v>0.0651997179</v>
+      </c>
+      <c r="K142" t="n">
+        <v>6522</v>
       </c>
     </row>
     <row r="143">
@@ -4617,7 +5473,13 @@
         <v>7975</v>
       </c>
       <c r="I143" t="n">
+        <v>109045.35156</v>
+      </c>
+      <c r="J143" t="n">
         <v>0.07099980860000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>7102</v>
       </c>
     </row>
     <row r="144">
@@ -4646,7 +5508,13 @@
         <v>8274</v>
       </c>
       <c r="I144" t="n">
+        <v>108688.10156</v>
+      </c>
+      <c r="J144" t="n">
         <v>0.07389989499999999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>7392</v>
       </c>
     </row>
     <row r="145">
@@ -4675,7 +5543,13 @@
         <v>890</v>
       </c>
       <c r="I145" t="n">
+        <v>238363.67188</v>
+      </c>
+      <c r="J145" t="n">
         <v>0.0054997923</v>
+      </c>
+      <c r="K145" t="n">
+        <v>552</v>
       </c>
     </row>
     <row r="146">
@@ -4704,7 +5578,13 @@
         <v>40</v>
       </c>
       <c r="I146" t="n">
+        <v>4629516</v>
+      </c>
+      <c r="J146" t="n">
         <v>0.000289983</v>
+      </c>
+      <c r="K146" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -4733,7 +5613,13 @@
         <v>1438</v>
       </c>
       <c r="I147" t="n">
+        <v>173762.67188</v>
+      </c>
+      <c r="J147" t="n">
         <v>0.0097798808</v>
+      </c>
+      <c r="K147" t="n">
+        <v>980</v>
       </c>
     </row>
     <row r="148">
@@ -4762,7 +5648,13 @@
         <v>2017</v>
       </c>
       <c r="I148" t="n">
+        <v>147813.71875</v>
+      </c>
+      <c r="J148" t="n">
         <v>0.0146897817</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1471</v>
       </c>
     </row>
     <row r="149">
@@ -4791,7 +5683,13 @@
         <v>2603</v>
       </c>
       <c r="I149" t="n">
+        <v>134271.375</v>
+      </c>
+      <c r="J149" t="n">
         <v>0.0198898464</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1991</v>
       </c>
     </row>
     <row r="150">
@@ -4820,7 +5718,13 @@
         <v>3193</v>
       </c>
       <c r="I150" t="n">
+        <v>126232.16406</v>
+      </c>
+      <c r="J150" t="n">
         <v>0.0252598617</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2528</v>
       </c>
     </row>
     <row r="151">
@@ -4849,7 +5753,13 @@
         <v>3786</v>
       </c>
       <c r="I151" t="n">
+        <v>121208.22656</v>
+      </c>
+      <c r="J151" t="n">
         <v>0.0307697523</v>
+      </c>
+      <c r="K151" t="n">
+        <v>3079</v>
       </c>
     </row>
     <row r="152">
@@ -4878,7 +5788,13 @@
         <v>4380</v>
       </c>
       <c r="I152" t="n">
+        <v>117848.5625</v>
+      </c>
+      <c r="J152" t="n">
         <v>0.0363399573</v>
+      </c>
+      <c r="K152" t="n">
+        <v>3636</v>
       </c>
     </row>
     <row r="153">
@@ -4907,7 +5823,13 @@
         <v>4975</v>
       </c>
       <c r="I153" t="n">
+        <v>115935.96094</v>
+      </c>
+      <c r="J153" t="n">
         <v>0.0419599935</v>
+      </c>
+      <c r="K153" t="n">
+        <v>4198</v>
       </c>
     </row>
     <row r="154">
@@ -4936,7 +5858,13 @@
         <v>5570</v>
       </c>
       <c r="I154" t="n">
+        <v>114000.39844</v>
+      </c>
+      <c r="J154" t="n">
         <v>0.0476398394</v>
+      </c>
+      <c r="K154" t="n">
+        <v>4766</v>
       </c>
     </row>
     <row r="155">
@@ -4965,7 +5893,13 @@
         <v>6167</v>
       </c>
       <c r="I155" t="n">
+        <v>112117.09375</v>
+      </c>
+      <c r="J155" t="n">
         <v>0.0533598214</v>
+      </c>
+      <c r="K155" t="n">
+        <v>5338</v>
       </c>
     </row>
     <row r="156">
@@ -4994,7 +5928,13 @@
         <v>6763</v>
       </c>
       <c r="I156" t="n">
+        <v>111209.85156</v>
+      </c>
+      <c r="J156" t="n">
         <v>0.0590997674</v>
+      </c>
+      <c r="K156" t="n">
+        <v>5912</v>
       </c>
     </row>
     <row r="157">
@@ -5023,7 +5963,13 @@
         <v>392</v>
       </c>
       <c r="I157" t="n">
+        <v>601990.0625</v>
+      </c>
+      <c r="J157" t="n">
         <v>0.0019997556</v>
+      </c>
+      <c r="K157" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="158">
@@ -5052,7 +5998,13 @@
         <v>7360</v>
       </c>
       <c r="I158" t="n">
+        <v>110228.14844</v>
+      </c>
+      <c r="J158" t="n">
         <v>0.0648699328</v>
+      </c>
+      <c r="K158" t="n">
+        <v>6489</v>
       </c>
     </row>
     <row r="159">
@@ -5081,7 +6033,13 @@
         <v>7957</v>
       </c>
       <c r="I159" t="n">
+        <v>109391.11719</v>
+      </c>
+      <c r="J159" t="n">
         <v>0.0706598163</v>
+      </c>
+      <c r="K159" t="n">
+        <v>7068</v>
       </c>
     </row>
     <row r="160">
@@ -5110,7 +6068,13 @@
         <v>8256</v>
       </c>
       <c r="I160" t="n">
+        <v>108971.3125</v>
+      </c>
+      <c r="J160" t="n">
         <v>0.073559761</v>
+      </c>
+      <c r="K160" t="n">
+        <v>7358</v>
       </c>
     </row>
     <row r="161">
@@ -5139,7 +6103,13 @@
         <v>877</v>
       </c>
       <c r="I161" t="n">
+        <v>246499.39062</v>
+      </c>
+      <c r="J161" t="n">
         <v>0.0053799385</v>
+      </c>
+      <c r="K161" t="n">
+        <v>540</v>
       </c>
     </row>
     <row r="162">
@@ -5168,7 +6138,13 @@
         <v>39</v>
       </c>
       <c r="I162" t="n">
+        <v>5259944.5</v>
+      </c>
+      <c r="J162" t="n">
         <v>0.0002799131</v>
+      </c>
+      <c r="K162" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="163">
@@ -5197,7 +6173,13 @@
         <v>1425</v>
       </c>
       <c r="I163" t="n">
+        <v>177385.0625</v>
+      </c>
+      <c r="J163" t="n">
         <v>0.0096197044</v>
+      </c>
+      <c r="K163" t="n">
+        <v>964</v>
       </c>
     </row>
     <row r="164">
@@ -5226,7 +6208,13 @@
         <v>2003</v>
       </c>
       <c r="I164" t="n">
+        <v>148804.82812</v>
+      </c>
+      <c r="J164" t="n">
         <v>0.0145099415</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1453</v>
       </c>
     </row>
     <row r="165">
@@ -5255,7 +6243,13 @@
         <v>2588</v>
       </c>
       <c r="I165" t="n">
+        <v>135571.23438</v>
+      </c>
+      <c r="J165" t="n">
         <v>0.0196697824</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1969</v>
       </c>
     </row>
     <row r="166">
@@ -5284,7 +6278,13 @@
         <v>3178</v>
       </c>
       <c r="I166" t="n">
+        <v>127194.375</v>
+      </c>
+      <c r="J166" t="n">
         <v>0.0250197351</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2504</v>
       </c>
     </row>
     <row r="167">
@@ -5313,7 +6313,13 @@
         <v>3770</v>
       </c>
       <c r="I167" t="n">
+        <v>122097.19531</v>
+      </c>
+      <c r="J167" t="n">
         <v>0.0304996986</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3052</v>
       </c>
     </row>
     <row r="168">
@@ -5342,7 +6348,13 @@
         <v>4364</v>
       </c>
       <c r="I168" t="n">
+        <v>118440.34375</v>
+      </c>
+      <c r="J168" t="n">
         <v>0.0360599197</v>
+      </c>
+      <c r="K168" t="n">
+        <v>3608</v>
       </c>
     </row>
     <row r="169">
@@ -5371,7 +6383,13 @@
         <v>4958</v>
       </c>
       <c r="I169" t="n">
+        <v>116348.96875</v>
+      </c>
+      <c r="J169" t="n">
         <v>0.0416798703</v>
+      </c>
+      <c r="K169" t="n">
+        <v>4170</v>
       </c>
     </row>
     <row r="170">
@@ -5400,7 +6418,13 @@
         <v>5554</v>
       </c>
       <c r="I170" t="n">
+        <v>114370.53906</v>
+      </c>
+      <c r="J170" t="n">
         <v>0.047349941</v>
+      </c>
+      <c r="K170" t="n">
+        <v>4737</v>
       </c>
     </row>
     <row r="171">
@@ -5429,7 +6453,13 @@
         <v>6150</v>
       </c>
       <c r="I171" t="n">
+        <v>112530.64844</v>
+      </c>
+      <c r="J171" t="n">
         <v>0.0530599691</v>
+      </c>
+      <c r="K171" t="n">
+        <v>5308</v>
       </c>
     </row>
     <row r="172">
@@ -5458,7 +6488,13 @@
         <v>6746</v>
       </c>
       <c r="I172" t="n">
+        <v>111111.17969</v>
+      </c>
+      <c r="J172" t="n">
         <v>0.0588097647</v>
+      </c>
+      <c r="K172" t="n">
+        <v>5883</v>
       </c>
     </row>
     <row r="173">
@@ -5487,7 +6523,13 @@
         <v>388</v>
       </c>
       <c r="I173" t="n">
+        <v>627336.625</v>
+      </c>
+      <c r="J173" t="n">
         <v>0.0019598058</v>
+      </c>
+      <c r="K173" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="174">
@@ -5516,7 +6558,13 @@
         <v>7343</v>
       </c>
       <c r="I174" t="n">
+        <v>110341.85156</v>
+      </c>
+      <c r="J174" t="n">
         <v>0.064559795</v>
+      </c>
+      <c r="K174" t="n">
+        <v>6458</v>
       </c>
     </row>
     <row r="175">
@@ -5545,7 +6593,13 @@
         <v>7940</v>
       </c>
       <c r="I175" t="n">
+        <v>109660.71094</v>
+      </c>
+      <c r="J175" t="n">
         <v>0.0703397915</v>
+      </c>
+      <c r="K175" t="n">
+        <v>7036</v>
       </c>
     </row>
     <row r="176">
@@ -5574,7 +6628,13 @@
         <v>8239</v>
       </c>
       <c r="I176" t="n">
+        <v>109255.94531</v>
+      </c>
+      <c r="J176" t="n">
         <v>0.0732397288</v>
+      </c>
+      <c r="K176" t="n">
+        <v>7326</v>
       </c>
     </row>
     <row r="177">
@@ -5603,7 +6663,13 @@
         <v>866</v>
       </c>
       <c r="I177" t="n">
+        <v>254637.45312</v>
+      </c>
+      <c r="J177" t="n">
         <v>0.0052697887</v>
+      </c>
+      <c r="K177" t="n">
+        <v>529</v>
       </c>
     </row>
     <row r="178">
@@ -5632,7 +6698,13 @@
         <v>124</v>
       </c>
       <c r="I178" t="n">
+        <v>1347380</v>
+      </c>
+      <c r="J178" t="n">
         <v>0.00047991</v>
+      </c>
+      <c r="K178" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="179">
@@ -5661,7 +6733,13 @@
         <v>1759</v>
       </c>
       <c r="I179" t="n">
+        <v>122318</v>
+      </c>
+      <c r="J179" t="n">
         <v>0.0142099997</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1423</v>
       </c>
     </row>
     <row r="180">
@@ -5690,7 +6768,13 @@
         <v>2353</v>
       </c>
       <c r="I180" t="n">
+        <v>116212</v>
+      </c>
+      <c r="J180" t="n">
         <v>0.0197999999</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1982</v>
       </c>
     </row>
     <row r="181">
@@ -5719,7 +6803,13 @@
         <v>2949</v>
       </c>
       <c r="I181" t="n">
+        <v>111979</v>
+      </c>
+      <c r="J181" t="n">
         <v>0.0255100001</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2553</v>
       </c>
     </row>
     <row r="182">
@@ -5748,7 +6838,13 @@
         <v>3546</v>
       </c>
       <c r="I182" t="n">
+        <v>109932</v>
+      </c>
+      <c r="J182" t="n">
         <v>0.03125</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3127</v>
       </c>
     </row>
     <row r="183">
@@ -5777,7 +6873,13 @@
         <v>4143</v>
       </c>
       <c r="I183" t="n">
+        <v>108435</v>
+      </c>
+      <c r="J183" t="n">
         <v>0.0370500013</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3707</v>
       </c>
     </row>
     <row r="184">
@@ -5806,7 +6908,13 @@
         <v>4741</v>
       </c>
       <c r="I184" t="n">
+        <v>107339</v>
+      </c>
+      <c r="J184" t="n">
         <v>0.0428799987</v>
+      </c>
+      <c r="K184" t="n">
+        <v>4290</v>
       </c>
     </row>
     <row r="185">
@@ -5835,7 +6943,13 @@
         <v>5339</v>
       </c>
       <c r="I185" t="n">
+        <v>106457</v>
+      </c>
+      <c r="J185" t="n">
         <v>0.0487399995</v>
+      </c>
+      <c r="K185" t="n">
+        <v>4876</v>
       </c>
     </row>
     <row r="186">
@@ -5864,7 +6978,13 @@
         <v>5937</v>
       </c>
       <c r="I186" t="n">
+        <v>105808</v>
+      </c>
+      <c r="J186" t="n">
         <v>0.0546099991</v>
+      </c>
+      <c r="K186" t="n">
+        <v>5463</v>
       </c>
     </row>
     <row r="187">
@@ -5893,7 +7013,13 @@
         <v>6535</v>
       </c>
       <c r="I187" t="n">
+        <v>105349</v>
+      </c>
+      <c r="J187" t="n">
         <v>0.060490001</v>
+      </c>
+      <c r="K187" t="n">
+        <v>6051</v>
       </c>
     </row>
     <row r="188">
@@ -5922,7 +7048,13 @@
         <v>7133</v>
       </c>
       <c r="I188" t="n">
+        <v>104935.10156</v>
+      </c>
+      <c r="J188" t="n">
         <v>0.06637986</v>
+      </c>
+      <c r="K188" t="n">
+        <v>6640</v>
       </c>
     </row>
     <row r="189">
@@ -5951,7 +7083,13 @@
         <v>589</v>
       </c>
       <c r="I189" t="n">
+        <v>191345</v>
+      </c>
+      <c r="J189" t="n">
         <v>0.0038697999</v>
+      </c>
+      <c r="K189" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="190">
@@ -5980,7 +7118,13 @@
         <v>7731</v>
       </c>
       <c r="I190" t="n">
+        <v>104562.03125</v>
+      </c>
+      <c r="J190" t="n">
         <v>0.0722797662</v>
+      </c>
+      <c r="K190" t="n">
+        <v>7230</v>
       </c>
     </row>
     <row r="191">
@@ -6009,7 +7153,13 @@
         <v>8330</v>
       </c>
       <c r="I191" t="n">
+        <v>104261.14844</v>
+      </c>
+      <c r="J191" t="n">
         <v>0.07818963380000001</v>
+      </c>
+      <c r="K191" t="n">
+        <v>7821</v>
       </c>
     </row>
     <row r="192">
@@ -6038,7 +7188,13 @@
         <v>8629</v>
       </c>
       <c r="I192" t="n">
+        <v>104146.02344</v>
+      </c>
+      <c r="J192" t="n">
         <v>0.0811497346</v>
+      </c>
+      <c r="K192" t="n">
+        <v>8117</v>
       </c>
     </row>
     <row r="193">
@@ -6067,7 +7223,13 @@
         <v>1168</v>
       </c>
       <c r="I193" t="n">
+        <v>137016</v>
+      </c>
+      <c r="J193" t="n">
         <v>0.0088098003</v>
+      </c>
+      <c r="K193" t="n">
+        <v>883</v>
       </c>
     </row>
     <row r="194">
@@ -6096,7 +7258,13 @@
         <v>38</v>
       </c>
       <c r="I194" t="n">
+        <v>5179066.5</v>
+      </c>
+      <c r="J194" t="n">
         <v>0.0002799125</v>
+      </c>
+      <c r="K194" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="195">
@@ -6125,7 +7293,13 @@
         <v>1411</v>
       </c>
       <c r="I195" t="n">
+        <v>180604.67188</v>
+      </c>
+      <c r="J195" t="n">
         <v>0.0094699161</v>
+      </c>
+      <c r="K195" t="n">
+        <v>949</v>
       </c>
     </row>
     <row r="196">
@@ -6154,7 +7328,13 @@
         <v>1988</v>
       </c>
       <c r="I196" t="n">
+        <v>150788.59375</v>
+      </c>
+      <c r="J196" t="n">
         <v>0.0143097388</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1433</v>
       </c>
     </row>
     <row r="197">
@@ -6183,7 +7363,13 @@
         <v>2573</v>
       </c>
       <c r="I197" t="n">
+        <v>136718.85938</v>
+      </c>
+      <c r="J197" t="n">
         <v>0.0194497593</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1947</v>
       </c>
     </row>
     <row r="198">
@@ -6212,7 +7398,13 @@
         <v>3162</v>
       </c>
       <c r="I198" t="n">
+        <v>128049.96094</v>
+      </c>
+      <c r="J198" t="n">
         <v>0.0247999839</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2482</v>
       </c>
     </row>
     <row r="199">
@@ -6241,7 +7433,13 @@
         <v>3754</v>
       </c>
       <c r="I199" t="n">
+        <v>122685.30469</v>
+      </c>
+      <c r="J199" t="n">
         <v>0.0302598309</v>
+      </c>
+      <c r="K199" t="n">
+        <v>3028</v>
       </c>
     </row>
     <row r="200">
@@ -6270,7 +7468,13 @@
         <v>4348</v>
       </c>
       <c r="I200" t="n">
+        <v>119703.14844</v>
+      </c>
+      <c r="J200" t="n">
         <v>0.0357897095</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3581</v>
       </c>
     </row>
     <row r="201">
@@ -6299,7 +7503,13 @@
         <v>4942</v>
       </c>
       <c r="I201" t="n">
+        <v>116931.96875</v>
+      </c>
+      <c r="J201" t="n">
         <v>0.0413997881</v>
+      </c>
+      <c r="K201" t="n">
+        <v>4142</v>
       </c>
     </row>
     <row r="202">
@@ -6328,7 +7538,13 @@
         <v>5538</v>
       </c>
       <c r="I202" t="n">
+        <v>114818.19531</v>
+      </c>
+      <c r="J202" t="n">
         <v>0.0470598415</v>
+      </c>
+      <c r="K202" t="n">
+        <v>4708</v>
       </c>
     </row>
     <row r="203">
@@ -6357,7 +7573,13 @@
         <v>6133</v>
       </c>
       <c r="I203" t="n">
+        <v>113232.75781</v>
+      </c>
+      <c r="J203" t="n">
         <v>0.0527599864</v>
+      </c>
+      <c r="K203" t="n">
+        <v>5278</v>
       </c>
     </row>
     <row r="204">
@@ -6386,7 +7608,13 @@
         <v>6730</v>
       </c>
       <c r="I204" t="n">
+        <v>111914.13281</v>
+      </c>
+      <c r="J204" t="n">
         <v>0.0584898628</v>
+      </c>
+      <c r="K204" t="n">
+        <v>5851</v>
       </c>
     </row>
     <row r="205">
@@ -6415,7 +7643,13 @@
         <v>384</v>
       </c>
       <c r="I205" t="n">
+        <v>671450.9375</v>
+      </c>
+      <c r="J205" t="n">
         <v>0.0019097509</v>
+      </c>
+      <c r="K205" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="206">
@@ -6444,7 +7678,13 @@
         <v>7327</v>
       </c>
       <c r="I206" t="n">
+        <v>110517.02344</v>
+      </c>
+      <c r="J206" t="n">
         <v>0.0642497912</v>
+      </c>
+      <c r="K206" t="n">
+        <v>6427</v>
       </c>
     </row>
     <row r="207">
@@ -6473,7 +7713,13 @@
         <v>7924</v>
       </c>
       <c r="I207" t="n">
+        <v>109702.34375</v>
+      </c>
+      <c r="J207" t="n">
         <v>0.0700199604</v>
+      </c>
+      <c r="K207" t="n">
+        <v>7004</v>
       </c>
     </row>
     <row r="208">
@@ -6502,7 +7748,13 @@
         <v>8222</v>
       </c>
       <c r="I208" t="n">
+        <v>109512.28125</v>
+      </c>
+      <c r="J208" t="n">
         <v>0.0729196966</v>
+      </c>
+      <c r="K208" t="n">
+        <v>7294</v>
       </c>
     </row>
     <row r="209">
@@ -6531,7 +7783,13 @@
         <v>855</v>
       </c>
       <c r="I209" t="n">
+        <v>261836.35938</v>
+      </c>
+      <c r="J209" t="n">
         <v>0.005169963</v>
+      </c>
+      <c r="K209" t="n">
+        <v>519</v>
       </c>
     </row>
     <row r="210">
@@ -6560,7 +7818,13 @@
         <v>38</v>
       </c>
       <c r="I210" t="n">
+        <v>5100407.5</v>
+      </c>
+      <c r="J210" t="n">
         <v>0.0002799993</v>
+      </c>
+      <c r="K210" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="211">
@@ -6589,7 +7853,13 @@
         <v>1399</v>
       </c>
       <c r="I211" t="n">
+        <v>183884.75</v>
+      </c>
+      <c r="J211" t="n">
         <v>0.009329945799999999</v>
+      </c>
+      <c r="K211" t="n">
+        <v>935</v>
       </c>
     </row>
     <row r="212">
@@ -6618,7 +7888,13 @@
         <v>1975</v>
       </c>
       <c r="I212" t="n">
+        <v>152670.90625</v>
+      </c>
+      <c r="J212" t="n">
         <v>0.0141397743</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1416</v>
       </c>
     </row>
     <row r="213">
@@ -6647,7 +7923,13 @@
         <v>2559</v>
       </c>
       <c r="I213" t="n">
+        <v>137628.48438</v>
+      </c>
+      <c r="J213" t="n">
         <v>0.0192698054</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1929</v>
       </c>
     </row>
     <row r="214">
@@ -6676,7 +7958,13 @@
         <v>3148</v>
       </c>
       <c r="I214" t="n">
+        <v>129425.11719</v>
+      </c>
+      <c r="J214" t="n">
         <v>0.0245697629</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2459</v>
       </c>
     </row>
     <row r="215">
@@ -6705,7 +7993,13 @@
         <v>3740</v>
       </c>
       <c r="I215" t="n">
+        <v>123397.77344</v>
+      </c>
+      <c r="J215" t="n">
         <v>0.03002996</v>
+      </c>
+      <c r="K215" t="n">
+        <v>3005</v>
       </c>
     </row>
     <row r="216">
@@ -6734,7 +8028,13 @@
         <v>4333</v>
       </c>
       <c r="I216" t="n">
+        <v>120125.35156</v>
+      </c>
+      <c r="J216" t="n">
         <v>0.035549771</v>
+      </c>
+      <c r="K216" t="n">
+        <v>3557</v>
       </c>
     </row>
     <row r="217">
@@ -6763,7 +8063,13 @@
         <v>4927</v>
       </c>
       <c r="I217" t="n">
+        <v>117371.60156</v>
+      </c>
+      <c r="J217" t="n">
         <v>0.0411497168</v>
+      </c>
+      <c r="K217" t="n">
+        <v>4117</v>
       </c>
     </row>
     <row r="218">
@@ -6792,7 +8098,13 @@
         <v>5523</v>
       </c>
       <c r="I218" t="n">
+        <v>115274.72656</v>
+      </c>
+      <c r="J218" t="n">
         <v>0.0467998572</v>
+      </c>
+      <c r="K218" t="n">
+        <v>4682</v>
       </c>
     </row>
     <row r="219">
@@ -6821,7 +8133,13 @@
         <v>6118</v>
       </c>
       <c r="I219" t="n">
+        <v>113501.58594</v>
+      </c>
+      <c r="J219" t="n">
         <v>0.0524899326</v>
+      </c>
+      <c r="K219" t="n">
+        <v>5251</v>
       </c>
     </row>
     <row r="220">
@@ -6850,7 +8168,13 @@
         <v>6715</v>
       </c>
       <c r="I220" t="n">
+        <v>111742.72656</v>
+      </c>
+      <c r="J220" t="n">
         <v>0.058229696</v>
+      </c>
+      <c r="K220" t="n">
+        <v>5825</v>
       </c>
     </row>
     <row r="221">
@@ -6879,7 +8203,13 @@
         <v>381</v>
       </c>
       <c r="I221" t="n">
+        <v>690562.625</v>
+      </c>
+      <c r="J221" t="n">
         <v>0.0018799343</v>
+      </c>
+      <c r="K221" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="222">
@@ -6908,7 +8238,13 @@
         <v>7311</v>
       </c>
       <c r="I222" t="n">
+        <v>110665.02344</v>
+      </c>
+      <c r="J222" t="n">
         <v>0.0639797896</v>
+      </c>
+      <c r="K222" t="n">
+        <v>6400</v>
       </c>
     </row>
     <row r="223">
@@ -6937,7 +8273,13 @@
         <v>7908</v>
       </c>
       <c r="I223" t="n">
+        <v>109840.22656</v>
+      </c>
+      <c r="J223" t="n">
         <v>0.0697397962</v>
+      </c>
+      <c r="K223" t="n">
+        <v>6976</v>
       </c>
     </row>
     <row r="224">
@@ -6966,7 +8308,13 @@
         <v>8207</v>
       </c>
       <c r="I224" t="n">
+        <v>109719.53125</v>
+      </c>
+      <c r="J224" t="n">
         <v>0.0726297721</v>
+      </c>
+      <c r="K224" t="n">
+        <v>7265</v>
       </c>
     </row>
     <row r="225">
@@ -6995,7 +8343,13 @@
         <v>845</v>
       </c>
       <c r="I225" t="n">
+        <v>270808.625</v>
+      </c>
+      <c r="J225" t="n">
         <v>0.0050698356</v>
+      </c>
+      <c r="K225" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="226">
@@ -7024,7 +8378,13 @@
         <v>37</v>
       </c>
       <c r="I226" t="n">
+        <v>5842436.5</v>
+      </c>
+      <c r="J226" t="n">
         <v>0.0002699122</v>
+      </c>
+      <c r="K226" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="227">
@@ -7053,7 +8413,13 @@
         <v>1387</v>
       </c>
       <c r="I227" t="n">
+        <v>187806.85938</v>
+      </c>
+      <c r="J227" t="n">
         <v>0.0091899401</v>
+      </c>
+      <c r="K227" t="n">
+        <v>921</v>
       </c>
     </row>
     <row r="228">
@@ -7082,7 +8448,13 @@
         <v>1962</v>
       </c>
       <c r="I228" t="n">
+        <v>154657.07812</v>
+      </c>
+      <c r="J228" t="n">
         <v>0.0139698442</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1399</v>
       </c>
     </row>
     <row r="229">
@@ -7111,7 +8483,13 @@
         <v>2546</v>
       </c>
       <c r="I229" t="n">
+        <v>138824.60938</v>
+      </c>
+      <c r="J229" t="n">
         <v>0.0190797541</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1910</v>
       </c>
     </row>
     <row r="230">
@@ -7140,7 +8518,13 @@
         <v>3134</v>
       </c>
       <c r="I230" t="n">
+        <v>130579.69531</v>
+      </c>
+      <c r="J230" t="n">
         <v>0.0243599489</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2438</v>
       </c>
     </row>
     <row r="231">
@@ -7169,7 +8553,13 @@
         <v>3725</v>
       </c>
       <c r="I231" t="n">
+        <v>124794.84375</v>
+      </c>
+      <c r="J231" t="n">
         <v>0.0297898781</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2981</v>
       </c>
     </row>
     <row r="232">
@@ -7198,7 +8588,13 @@
         <v>4318</v>
       </c>
       <c r="I232" t="n">
+        <v>120823</v>
+      </c>
+      <c r="J232" t="n">
         <v>0.0353098474</v>
+      </c>
+      <c r="K232" t="n">
+        <v>3533</v>
       </c>
     </row>
     <row r="233">
@@ -7227,7 +8623,13 @@
         <v>4913</v>
       </c>
       <c r="I233" t="n">
+        <v>117903.91406</v>
+      </c>
+      <c r="J233" t="n">
         <v>0.04089991</v>
+      </c>
+      <c r="K233" t="n">
+        <v>4092</v>
       </c>
     </row>
     <row r="234">
@@ -7256,7 +8658,13 @@
         <v>5508</v>
       </c>
       <c r="I234" t="n">
+        <v>115230.57031</v>
+      </c>
+      <c r="J234" t="n">
         <v>0.0465397984</v>
+      </c>
+      <c r="K234" t="n">
+        <v>4656</v>
       </c>
     </row>
     <row r="235">
@@ -7285,7 +8693,13 @@
         <v>6103</v>
       </c>
       <c r="I235" t="n">
+        <v>113425.13281</v>
+      </c>
+      <c r="J235" t="n">
         <v>0.0522299185</v>
+      </c>
+      <c r="K235" t="n">
+        <v>5225</v>
       </c>
     </row>
     <row r="236">
@@ -7314,7 +8728,13 @@
         <v>6700</v>
       </c>
       <c r="I236" t="n">
+        <v>112468.83594</v>
+      </c>
+      <c r="J236" t="n">
         <v>0.0579398349</v>
+      </c>
+      <c r="K236" t="n">
+        <v>5796</v>
       </c>
     </row>
     <row r="237">
@@ -7343,7 +8763,13 @@
         <v>378</v>
       </c>
       <c r="I237" t="n">
+        <v>730446.5625</v>
+      </c>
+      <c r="J237" t="n">
         <v>0.0018397139</v>
+      </c>
+      <c r="K237" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="238">
@@ -7372,7 +8798,13 @@
         <v>7296</v>
       </c>
       <c r="I238" t="n">
+        <v>110905.94531</v>
+      </c>
+      <c r="J238" t="n">
         <v>0.0636999905</v>
+      </c>
+      <c r="K238" t="n">
+        <v>6372</v>
       </c>
     </row>
     <row r="239">
@@ -7401,7 +8833,13 @@
         <v>7893</v>
       </c>
       <c r="I239" t="n">
+        <v>110428.64844</v>
+      </c>
+      <c r="J239" t="n">
         <v>0.0694498867</v>
+      </c>
+      <c r="K239" t="n">
+        <v>6947</v>
       </c>
     </row>
     <row r="240">
@@ -7430,7 +8868,13 @@
         <v>8192</v>
       </c>
       <c r="I240" t="n">
+        <v>110004.69531</v>
+      </c>
+      <c r="J240" t="n">
         <v>0.0723399594</v>
+      </c>
+      <c r="K240" t="n">
+        <v>7236</v>
       </c>
     </row>
     <row r="241">
@@ -7459,7 +8903,13 @@
         <v>835</v>
       </c>
       <c r="I241" t="n">
+        <v>278516.8125</v>
+      </c>
+      <c r="J241" t="n">
         <v>0.0049798498</v>
+      </c>
+      <c r="K241" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="242">
@@ -7488,7 +8938,13 @@
         <v>53</v>
       </c>
       <c r="I242" t="n">
+        <v>5765450.5</v>
+      </c>
+      <c r="J242" t="n">
         <v>0.0002699915</v>
+      </c>
+      <c r="K242" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="243">
@@ -7517,7 +8973,13 @@
         <v>1376</v>
       </c>
       <c r="I243" t="n">
+        <v>190504.32812</v>
+      </c>
+      <c r="J243" t="n">
         <v>0.0090698237</v>
+      </c>
+      <c r="K243" t="n">
+        <v>909</v>
       </c>
     </row>
     <row r="244">
@@ -7546,7 +9008,13 @@
         <v>1950</v>
       </c>
       <c r="I244" t="n">
+        <v>157363.78125</v>
+      </c>
+      <c r="J244" t="n">
         <v>0.0138099734</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1383</v>
       </c>
     </row>
     <row r="245">
@@ -7575,7 +9043,13 @@
         <v>2533</v>
       </c>
       <c r="I245" t="n">
+        <v>140058.53125</v>
+      </c>
+      <c r="J245" t="n">
         <v>0.0188997015</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1892</v>
       </c>
     </row>
     <row r="246">
@@ -7604,7 +9078,13 @@
         <v>3121</v>
       </c>
       <c r="I246" t="n">
+        <v>130682.83594</v>
+      </c>
+      <c r="J246" t="n">
         <v>0.0241797119</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2420</v>
       </c>
     </row>
     <row r="247">
@@ -7633,7 +9113,13 @@
         <v>3712</v>
       </c>
       <c r="I247" t="n">
+        <v>125249.58594</v>
+      </c>
+      <c r="J247" t="n">
         <v>0.0295799635</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2960</v>
       </c>
     </row>
     <row r="248">
@@ -7662,7 +9148,13 @@
         <v>4305</v>
       </c>
       <c r="I248" t="n">
+        <v>121003.83594</v>
+      </c>
+      <c r="J248" t="n">
         <v>0.0350899361</v>
+      </c>
+      <c r="K248" t="n">
+        <v>3511</v>
       </c>
     </row>
     <row r="249">
@@ -7691,7 +9183,13 @@
         <v>4899</v>
       </c>
       <c r="I249" t="n">
+        <v>118026.63281</v>
+      </c>
+      <c r="J249" t="n">
         <v>0.04066981</v>
+      </c>
+      <c r="K249" t="n">
+        <v>4069</v>
       </c>
     </row>
     <row r="250">
@@ -7720,7 +9218,13 @@
         <v>5494</v>
       </c>
       <c r="I250" t="n">
+        <v>116010.16406</v>
+      </c>
+      <c r="J250" t="n">
         <v>0.0462998189</v>
+      </c>
+      <c r="K250" t="n">
+        <v>4632</v>
       </c>
     </row>
     <row r="251">
@@ -7749,7 +9253,13 @@
         <v>6089</v>
       </c>
       <c r="I251" t="n">
+        <v>113941</v>
+      </c>
+      <c r="J251" t="n">
         <v>0.0519797131</v>
+      </c>
+      <c r="K251" t="n">
+        <v>5200</v>
       </c>
     </row>
     <row r="252">
@@ -7778,7 +9288,13 @@
         <v>6685</v>
       </c>
       <c r="I252" t="n">
+        <v>112324.88281</v>
+      </c>
+      <c r="J252" t="n">
         <v>0.0576899648</v>
+      </c>
+      <c r="K252" t="n">
+        <v>5771</v>
       </c>
     </row>
     <row r="253">
@@ -7807,7 +9323,13 @@
         <v>375</v>
       </c>
       <c r="I253" t="n">
+        <v>757855.8125</v>
+      </c>
+      <c r="J253" t="n">
         <v>0.0018099381</v>
+      </c>
+      <c r="K253" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="254">
@@ -7836,7 +9358,13 @@
         <v>7282</v>
       </c>
       <c r="I254" t="n">
+        <v>111346.3125</v>
+      </c>
+      <c r="J254" t="n">
         <v>0.0634198487</v>
+      </c>
+      <c r="K254" t="n">
+        <v>6344</v>
       </c>
     </row>
     <row r="255">
@@ -7865,7 +9393,13 @@
         <v>7879</v>
       </c>
       <c r="I255" t="n">
+        <v>110306.63281</v>
+      </c>
+      <c r="J255" t="n">
         <v>0.0691797659</v>
+      </c>
+      <c r="K255" t="n">
+        <v>6920</v>
       </c>
     </row>
     <row r="256">
@@ -7894,7 +9428,13 @@
         <v>8177</v>
       </c>
       <c r="I256" t="n">
+        <v>110212.71094</v>
+      </c>
+      <c r="J256" t="n">
         <v>0.0720697194</v>
+      </c>
+      <c r="K256" t="n">
+        <v>7209</v>
       </c>
     </row>
     <row r="257">
@@ -7923,7 +9463,13 @@
         <v>826</v>
       </c>
       <c r="I257" t="n">
+        <v>285496.4375</v>
+      </c>
+      <c r="J257" t="n">
         <v>0.004899811</v>
+      </c>
+      <c r="K257" t="n">
+        <v>492</v>
       </c>
     </row>
     <row r="258">
@@ -7952,7 +9498,13 @@
         <v>54</v>
       </c>
       <c r="I258" t="n">
+        <v>5711491.5</v>
+      </c>
+      <c r="J258" t="n">
         <v>0.0002699836</v>
+      </c>
+      <c r="K258" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="259">
@@ -7981,7 +9533,13 @@
         <v>1365</v>
       </c>
       <c r="I259" t="n">
+        <v>193730.4375</v>
+      </c>
+      <c r="J259" t="n">
         <v>0.0089498116</v>
+      </c>
+      <c r="K259" t="n">
+        <v>897</v>
       </c>
     </row>
     <row r="260">
@@ -8010,7 +9568,13 @@
         <v>1938</v>
       </c>
       <c r="I260" t="n">
+        <v>158200.92188</v>
+      </c>
+      <c r="J260" t="n">
         <v>0.0136698987</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1369</v>
       </c>
     </row>
     <row r="261">
@@ -8039,7 +9603,13 @@
         <v>2521</v>
       </c>
       <c r="I261" t="n">
+        <v>141576.23438</v>
+      </c>
+      <c r="J261" t="n">
         <v>0.0187197682</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1874</v>
       </c>
     </row>
     <row r="262">
@@ -8068,7 +9638,13 @@
         <v>3109</v>
       </c>
       <c r="I262" t="n">
+        <v>132282.98438</v>
+      </c>
+      <c r="J262" t="n">
         <v>0.0239798333</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2400</v>
       </c>
     </row>
     <row r="263">
@@ -8097,7 +9673,13 @@
         <v>3699</v>
       </c>
       <c r="I263" t="n">
+        <v>126126</v>
+      </c>
+      <c r="J263" t="n">
         <v>0.029379731</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2940</v>
       </c>
     </row>
     <row r="264">
@@ -8126,7 +9708,13 @@
         <v>4292</v>
       </c>
       <c r="I264" t="n">
+        <v>121407.83594</v>
+      </c>
+      <c r="J264" t="n">
         <v>0.0348798931</v>
+      </c>
+      <c r="K264" t="n">
+        <v>3490</v>
       </c>
     </row>
     <row r="265">
@@ -8155,7 +9743,13 @@
         <v>4886</v>
       </c>
       <c r="I265" t="n">
+        <v>118445.08594</v>
+      </c>
+      <c r="J265" t="n">
         <v>0.0404497683</v>
+      </c>
+      <c r="K265" t="n">
+        <v>4047</v>
       </c>
     </row>
     <row r="266">
@@ -8184,7 +9778,13 @@
         <v>5481</v>
       </c>
       <c r="I266" t="n">
+        <v>115909.44531</v>
+      </c>
+      <c r="J266" t="n">
         <v>0.0460698083</v>
+      </c>
+      <c r="K266" t="n">
+        <v>4609</v>
       </c>
     </row>
     <row r="267">
@@ -8213,7 +9813,13 @@
         <v>6076</v>
       </c>
       <c r="I267" t="n">
+        <v>114521.25781</v>
+      </c>
+      <c r="J267" t="n">
         <v>0.0517397299</v>
+      </c>
+      <c r="K267" t="n">
+        <v>5176</v>
       </c>
     </row>
     <row r="268">
@@ -8242,7 +9848,13 @@
         <v>6672</v>
       </c>
       <c r="I268" t="n">
+        <v>112635.39844</v>
+      </c>
+      <c r="J268" t="n">
         <v>0.0574598797</v>
+      </c>
+      <c r="K268" t="n">
+        <v>5748</v>
       </c>
     </row>
     <row r="269">
@@ -8271,7 +9883,13 @@
         <v>373</v>
       </c>
       <c r="I269" t="n">
+        <v>789798.5625</v>
+      </c>
+      <c r="J269" t="n">
         <v>0.0017797805</v>
+      </c>
+      <c r="K269" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="270">
@@ -8300,7 +9918,13 @@
         <v>7268</v>
       </c>
       <c r="I270" t="n">
+        <v>111399.97656</v>
+      </c>
+      <c r="J270" t="n">
         <v>0.0632098839</v>
+      </c>
+      <c r="K270" t="n">
+        <v>6323</v>
       </c>
     </row>
     <row r="271">
@@ -8329,7 +9953,13 @@
         <v>7865</v>
       </c>
       <c r="I271" t="n">
+        <v>110898.44531</v>
+      </c>
+      <c r="J271" t="n">
         <v>0.068929702</v>
+      </c>
+      <c r="K271" t="n">
+        <v>6895</v>
       </c>
     </row>
     <row r="272">
@@ -8358,7 +9988,13 @@
         <v>8164</v>
       </c>
       <c r="I272" t="n">
+        <v>110134.96094</v>
+      </c>
+      <c r="J272" t="n">
         <v>0.07181979719999999</v>
+      </c>
+      <c r="K272" t="n">
+        <v>7184</v>
       </c>
     </row>
     <row r="273">
@@ -8387,7 +10023,13 @@
         <v>817</v>
       </c>
       <c r="I273" t="n">
+        <v>293844.25</v>
+      </c>
+      <c r="J273" t="n">
         <v>0.0048199431</v>
+      </c>
+      <c r="K273" t="n">
+        <v>484</v>
       </c>
     </row>
     <row r="274">
@@ -8416,7 +10058,13 @@
         <v>56</v>
       </c>
       <c r="I274" t="n">
+        <v>6172120</v>
+      </c>
+      <c r="J274" t="n">
         <v>0.0002599181</v>
+      </c>
+      <c r="K274" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="275">
@@ -8445,7 +10093,13 @@
         <v>1355</v>
       </c>
       <c r="I275" t="n">
+        <v>196894.42188</v>
+      </c>
+      <c r="J275" t="n">
         <v>0.008839733900000001</v>
+      </c>
+      <c r="K275" t="n">
+        <v>886</v>
       </c>
     </row>
     <row r="276">
@@ -8474,7 +10128,13 @@
         <v>1927</v>
       </c>
       <c r="I276" t="n">
+        <v>160887.45312</v>
+      </c>
+      <c r="J276" t="n">
         <v>0.0135197546</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1354</v>
       </c>
     </row>
     <row r="277">
@@ -8503,7 +10163,13 @@
         <v>2509</v>
       </c>
       <c r="I277" t="n">
+        <v>142467.48438</v>
+      </c>
+      <c r="J277" t="n">
         <v>0.0185499303</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1857</v>
       </c>
     </row>
     <row r="278">
@@ -8532,7 +10198,13 @@
         <v>3096</v>
       </c>
       <c r="I278" t="n">
+        <v>132418.23438</v>
+      </c>
+      <c r="J278" t="n">
         <v>0.023809785</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2383</v>
       </c>
     </row>
     <row r="279">
@@ -8561,7 +10233,13 @@
         <v>3687</v>
       </c>
       <c r="I279" t="n">
+        <v>125982.97656</v>
+      </c>
+      <c r="J279" t="n">
         <v>0.0291999206</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2922</v>
       </c>
     </row>
     <row r="280">
@@ -8590,7 +10268,13 @@
         <v>4279</v>
       </c>
       <c r="I280" t="n">
+        <v>122402.39844</v>
+      </c>
+      <c r="J280" t="n">
         <v>0.0346697532</v>
+      </c>
+      <c r="K280" t="n">
+        <v>3469</v>
       </c>
     </row>
     <row r="281">
@@ -8619,7 +10303,13 @@
         <v>4873</v>
       </c>
       <c r="I281" t="n">
+        <v>119228.22656</v>
+      </c>
+      <c r="J281" t="n">
         <v>0.0402299836</v>
+      </c>
+      <c r="K281" t="n">
+        <v>4025</v>
       </c>
     </row>
     <row r="282">
@@ -8648,7 +10338,13 @@
         <v>5467</v>
       </c>
       <c r="I282" t="n">
+        <v>116366.21875</v>
+      </c>
+      <c r="J282" t="n">
         <v>0.0458499081</v>
+      </c>
+      <c r="K282" t="n">
+        <v>4587</v>
       </c>
     </row>
     <row r="283">
@@ -8677,7 +10373,13 @@
         <v>6063</v>
       </c>
       <c r="I283" t="n">
+        <v>114762.96875</v>
+      </c>
+      <c r="J283" t="n">
         <v>0.0515098572</v>
+      </c>
+      <c r="K283" t="n">
+        <v>5153</v>
       </c>
     </row>
     <row r="284">
@@ -8706,7 +10408,13 @@
         <v>6658</v>
       </c>
       <c r="I284" t="n">
+        <v>112902.33594</v>
+      </c>
+      <c r="J284" t="n">
         <v>0.0572197177</v>
+      </c>
+      <c r="K284" t="n">
+        <v>5724</v>
       </c>
     </row>
     <row r="285">
@@ -8735,7 +10443,13 @@
         <v>371</v>
       </c>
       <c r="I285" t="n">
+        <v>826491.4375</v>
+      </c>
+      <c r="J285" t="n">
         <v>0.0017498268</v>
+      </c>
+      <c r="K285" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="286">
@@ -8764,7 +10478,13 @@
         <v>7255</v>
       </c>
       <c r="I286" t="n">
+        <v>112162.52344</v>
+      </c>
+      <c r="J286" t="n">
         <v>0.0629298016</v>
+      </c>
+      <c r="K286" t="n">
+        <v>6295</v>
       </c>
     </row>
     <row r="287">
@@ -8793,7 +10513,13 @@
         <v>7851</v>
       </c>
       <c r="I287" t="n">
+        <v>111131.46094</v>
+      </c>
+      <c r="J287" t="n">
         <v>0.0686797276</v>
+      </c>
+      <c r="K287" t="n">
+        <v>6870</v>
       </c>
     </row>
     <row r="288">
@@ -8822,7 +10548,13 @@
         <v>8150</v>
       </c>
       <c r="I288" t="n">
+        <v>110438.85156</v>
+      </c>
+      <c r="J288" t="n">
         <v>0.0715596974</v>
+      </c>
+      <c r="K288" t="n">
+        <v>7158</v>
       </c>
     </row>
     <row r="289">
@@ -8851,7 +10583,13 @@
         <v>809</v>
       </c>
       <c r="I289" t="n">
+        <v>300615.0625</v>
+      </c>
+      <c r="J289" t="n">
         <v>0.0047499025</v>
+      </c>
+      <c r="K289" t="n">
+        <v>477</v>
       </c>
     </row>
     <row r="290">
@@ -8880,7 +10618,13 @@
         <v>57</v>
       </c>
       <c r="I290" t="n">
+        <v>6508259.5</v>
+      </c>
+      <c r="J290" t="n">
         <v>0.0002599811</v>
+      </c>
+      <c r="K290" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="291">
@@ -8909,7 +10653,13 @@
         <v>1345</v>
       </c>
       <c r="I291" t="n">
+        <v>200089.26562</v>
+      </c>
+      <c r="J291" t="n">
         <v>0.0087297577</v>
+      </c>
+      <c r="K291" t="n">
+        <v>875</v>
       </c>
     </row>
     <row r="292">
@@ -8938,7 +10688,13 @@
         <v>1916</v>
       </c>
       <c r="I292" t="n">
+        <v>161876.75</v>
+      </c>
+      <c r="J292" t="n">
         <v>0.0133898659</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1341</v>
       </c>
     </row>
     <row r="293">
@@ -8967,7 +10723,13 @@
         <v>2498</v>
       </c>
       <c r="I293" t="n">
+        <v>143832.70312</v>
+      </c>
+      <c r="J293" t="n">
         <v>0.0183997341</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1842</v>
       </c>
     </row>
     <row r="294">
@@ -8996,7 +10758,13 @@
         <v>3085</v>
       </c>
       <c r="I294" t="n">
+        <v>133205.53125</v>
+      </c>
+      <c r="J294" t="n">
         <v>0.023639733</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2366</v>
       </c>
     </row>
     <row r="295">
@@ -9025,7 +10793,13 @@
         <v>3675</v>
       </c>
       <c r="I295" t="n">
+        <v>127337.89844</v>
+      </c>
+      <c r="J295" t="n">
         <v>0.0289997905</v>
+      </c>
+      <c r="K295" t="n">
+        <v>2902</v>
       </c>
     </row>
     <row r="296">
@@ -9054,7 +10828,13 @@
         <v>4267</v>
       </c>
       <c r="I296" t="n">
+        <v>122209.58594</v>
+      </c>
+      <c r="J296" t="n">
         <v>0.0344898179</v>
+      </c>
+      <c r="K296" t="n">
+        <v>3451</v>
       </c>
     </row>
     <row r="297">
@@ -9083,7 +10863,13 @@
         <v>4860</v>
       </c>
       <c r="I297" t="n">
+        <v>118994.28906</v>
+      </c>
+      <c r="J297" t="n">
         <v>0.0400397964</v>
+      </c>
+      <c r="K297" t="n">
+        <v>4006</v>
       </c>
     </row>
     <row r="298">
@@ -9112,7 +10898,13 @@
         <v>5455</v>
       </c>
       <c r="I298" t="n">
+        <v>116567.72656</v>
+      </c>
+      <c r="J298" t="n">
         <v>0.0456498489</v>
+      </c>
+      <c r="K298" t="n">
+        <v>4567</v>
       </c>
     </row>
     <row r="299">
@@ -9141,7 +10933,13 @@
         <v>6050</v>
       </c>
       <c r="I299" t="n">
+        <v>115209.49219</v>
+      </c>
+      <c r="J299" t="n">
         <v>0.0512898862</v>
+      </c>
+      <c r="K299" t="n">
+        <v>5131</v>
       </c>
     </row>
     <row r="300">
@@ -9170,7 +10968,13 @@
         <v>6646</v>
       </c>
       <c r="I300" t="n">
+        <v>113648.77344</v>
+      </c>
+      <c r="J300" t="n">
         <v>0.0569798909</v>
+      </c>
+      <c r="K300" t="n">
+        <v>5700</v>
       </c>
     </row>
     <row r="301">
@@ -9199,7 +11003,13 @@
         <v>369</v>
       </c>
       <c r="I301" t="n">
+        <v>843974.25</v>
+      </c>
+      <c r="J301" t="n">
         <v>0.0017297176</v>
+      </c>
+      <c r="K301" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="302">
@@ -9228,7 +11038,13 @@
         <v>7242</v>
       </c>
       <c r="I302" t="n">
+        <v>112401.05469</v>
+      </c>
+      <c r="J302" t="n">
         <v>0.0626997873</v>
+      </c>
+      <c r="K302" t="n">
+        <v>6272</v>
       </c>
     </row>
     <row r="303">
@@ -9257,7 +11073,13 @@
         <v>7839</v>
       </c>
       <c r="I303" t="n">
+        <v>110868.36719</v>
+      </c>
+      <c r="J303" t="n">
         <v>0.06847999239999999</v>
+      </c>
+      <c r="K303" t="n">
+        <v>6850</v>
       </c>
     </row>
     <row r="304">
@@ -9286,7 +11108,13 @@
         <v>8137</v>
       </c>
       <c r="I304" t="n">
+        <v>110479.99219</v>
+      </c>
+      <c r="J304" t="n">
         <v>0.0713298768</v>
+      </c>
+      <c r="K304" t="n">
+        <v>7135</v>
       </c>
     </row>
     <row r="305">
@@ -9315,7 +11143,13 @@
         <v>801</v>
       </c>
       <c r="I305" t="n">
+        <v>308354.25</v>
+      </c>
+      <c r="J305" t="n">
         <v>0.0046798759</v>
+      </c>
+      <c r="K305" t="n">
+        <v>470</v>
       </c>
     </row>
     <row r="306">
@@ -9344,7 +11178,13 @@
         <v>58</v>
       </c>
       <c r="I306" t="n">
+        <v>6465490.5</v>
+      </c>
+      <c r="J306" t="n">
         <v>0.0002599426</v>
+      </c>
+      <c r="K306" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="307">
@@ -9373,7 +11213,13 @@
         <v>1335</v>
       </c>
       <c r="I307" t="n">
+        <v>203203</v>
+      </c>
+      <c r="J307" t="n">
         <v>0.0086298343</v>
+      </c>
+      <c r="K307" t="n">
+        <v>865</v>
       </c>
     </row>
     <row r="308">
@@ -9402,7 +11248,13 @@
         <v>1906</v>
       </c>
       <c r="I308" t="n">
+        <v>163508.84375</v>
+      </c>
+      <c r="J308" t="n">
         <v>0.0132598253</v>
+      </c>
+      <c r="K308" t="n">
+        <v>1328</v>
       </c>
     </row>
     <row r="309">
@@ -9431,7 +11283,13 @@
         <v>2487</v>
       </c>
       <c r="I309" t="n">
+        <v>144640.125</v>
+      </c>
+      <c r="J309" t="n">
         <v>0.0182597358</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1828</v>
       </c>
     </row>
     <row r="310">
@@ -9460,7 +11318,13 @@
         <v>3073</v>
       </c>
       <c r="I310" t="n">
+        <v>134105.3125</v>
+      </c>
+      <c r="J310" t="n">
         <v>0.0234598164</v>
+      </c>
+      <c r="K310" t="n">
+        <v>2348</v>
       </c>
     </row>
     <row r="311">
@@ -9489,7 +11353,13 @@
         <v>3663</v>
       </c>
       <c r="I311" t="n">
+        <v>127430.99219</v>
+      </c>
+      <c r="J311" t="n">
         <v>0.0288198609</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2884</v>
       </c>
     </row>
     <row r="312">
@@ -9518,7 +11388,13 @@
         <v>4255</v>
       </c>
       <c r="I312" t="n">
+        <v>122950.80469</v>
+      </c>
+      <c r="J312" t="n">
         <v>0.0342797041</v>
+      </c>
+      <c r="K312" t="n">
+        <v>3430</v>
       </c>
     </row>
     <row r="313">
@@ -9547,7 +11423,13 @@
         <v>4848</v>
       </c>
       <c r="I313" t="n">
+        <v>119402.72656</v>
+      </c>
+      <c r="J313" t="n">
         <v>0.039839711</v>
+      </c>
+      <c r="K313" t="n">
+        <v>3986</v>
       </c>
     </row>
     <row r="314">
@@ -9576,7 +11458,13 @@
         <v>5443</v>
       </c>
       <c r="I314" t="n">
+        <v>116917.53906</v>
+      </c>
+      <c r="J314" t="n">
         <v>0.0454399139</v>
+      </c>
+      <c r="K314" t="n">
+        <v>4546</v>
       </c>
     </row>
     <row r="315">
@@ -9605,7 +11493,13 @@
         <v>6038</v>
       </c>
       <c r="I315" t="n">
+        <v>115089.11719</v>
+      </c>
+      <c r="J315" t="n">
         <v>0.0510699004</v>
+      </c>
+      <c r="K315" t="n">
+        <v>5109</v>
       </c>
     </row>
     <row r="316">
@@ -9634,7 +11528,13 @@
         <v>6633</v>
       </c>
       <c r="I316" t="n">
+        <v>113518.53906</v>
+      </c>
+      <c r="J316" t="n">
         <v>0.0567599237</v>
+      </c>
+      <c r="K316" t="n">
+        <v>5678</v>
       </c>
     </row>
     <row r="317">
@@ -9663,7 +11563,13 @@
         <v>368</v>
       </c>
       <c r="I317" t="n">
+        <v>886900.1875</v>
+      </c>
+      <c r="J317" t="n">
         <v>0.0016998891</v>
+      </c>
+      <c r="K317" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="318">
@@ -9692,7 +11598,13 @@
         <v>7229</v>
       </c>
       <c r="I318" t="n">
+        <v>112599.25781</v>
+      </c>
+      <c r="J318" t="n">
         <v>0.06246984</v>
+      </c>
+      <c r="K318" t="n">
+        <v>6249</v>
       </c>
     </row>
     <row r="319">
@@ -9721,7 +11633,13 @@
         <v>7826</v>
       </c>
       <c r="I319" t="n">
+        <v>111527.21094</v>
+      </c>
+      <c r="J319" t="n">
         <v>0.06820997600000001</v>
+      </c>
+      <c r="K319" t="n">
+        <v>6823</v>
       </c>
     </row>
     <row r="320">
@@ -9750,7 +11668,13 @@
         <v>8124</v>
       </c>
       <c r="I320" t="n">
+        <v>111090.60156</v>
+      </c>
+      <c r="J320" t="n">
         <v>0.07108982649999999</v>
+      </c>
+      <c r="K320" t="n">
+        <v>7111</v>
       </c>
     </row>
     <row r="321">
@@ -9779,7 +11703,13 @@
         <v>794</v>
       </c>
       <c r="I321" t="n">
+        <v>317057.8125</v>
+      </c>
+      <c r="J321" t="n">
         <v>0.0046098926</v>
+      </c>
+      <c r="K321" t="n">
+        <v>463</v>
       </c>
     </row>
     <row r="322">
@@ -9808,7 +11738,13 @@
         <v>59</v>
       </c>
       <c r="I322" t="n">
+        <v>6405577.5</v>
+      </c>
+      <c r="J322" t="n">
         <v>0.00025995</v>
+      </c>
+      <c r="K322" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="323">
@@ -9837,7 +11773,13 @@
         <v>1326</v>
       </c>
       <c r="I323" t="n">
+        <v>206357.95312</v>
+      </c>
+      <c r="J323" t="n">
         <v>0.008529958299999999</v>
+      </c>
+      <c r="K323" t="n">
+        <v>855</v>
       </c>
     </row>
     <row r="324">
@@ -9866,7 +11808,13 @@
         <v>1895</v>
       </c>
       <c r="I324" t="n">
+        <v>165632.21875</v>
+      </c>
+      <c r="J324" t="n">
         <v>0.0131299682</v>
+      </c>
+      <c r="K324" t="n">
+        <v>1315</v>
       </c>
     </row>
     <row r="325">
@@ -9895,7 +11843,13 @@
         <v>2476</v>
       </c>
       <c r="I325" t="n">
+        <v>146429.9375</v>
+      </c>
+      <c r="J325" t="n">
         <v>0.018099932</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1812</v>
       </c>
     </row>
     <row r="326">
@@ -9924,7 +11878,13 @@
         <v>3062</v>
       </c>
       <c r="I326" t="n">
+        <v>135146.20312</v>
+      </c>
+      <c r="J326" t="n">
         <v>0.0232997965</v>
+      </c>
+      <c r="K326" t="n">
+        <v>2332</v>
       </c>
     </row>
     <row r="327">
@@ -9953,7 +11913,13 @@
         <v>3652</v>
       </c>
       <c r="I327" t="n">
+        <v>127897.71094</v>
+      </c>
+      <c r="J327" t="n">
         <v>0.0286598559</v>
+      </c>
+      <c r="K327" t="n">
+        <v>2868</v>
       </c>
     </row>
     <row r="328">
@@ -9982,7 +11948,13 @@
         <v>4243</v>
       </c>
       <c r="I328" t="n">
+        <v>123924.03906</v>
+      </c>
+      <c r="J328" t="n">
         <v>0.0340999179</v>
+      </c>
+      <c r="K328" t="n">
+        <v>3412</v>
       </c>
     </row>
     <row r="329">
@@ -10011,7 +11983,13 @@
         <v>4836</v>
       </c>
       <c r="I329" t="n">
+        <v>119777.41406</v>
+      </c>
+      <c r="J329" t="n">
         <v>0.0396497883</v>
+      </c>
+      <c r="K329" t="n">
+        <v>3967</v>
       </c>
     </row>
     <row r="330">
@@ -10040,7 +12018,13 @@
         <v>5431</v>
       </c>
       <c r="I330" t="n">
+        <v>117393.96094</v>
+      </c>
+      <c r="J330" t="n">
         <v>0.045229923</v>
+      </c>
+      <c r="K330" t="n">
+        <v>4525</v>
       </c>
     </row>
     <row r="331">
@@ -10069,7 +12053,13 @@
         <v>6026</v>
       </c>
       <c r="I331" t="n">
+        <v>115614.09375</v>
+      </c>
+      <c r="J331" t="n">
         <v>0.0508697592</v>
+      </c>
+      <c r="K331" t="n">
+        <v>5089</v>
       </c>
     </row>
     <row r="332">
@@ -10098,7 +12088,13 @@
         <v>6621</v>
       </c>
       <c r="I332" t="n">
+        <v>113655.88281</v>
+      </c>
+      <c r="J332" t="n">
         <v>0.056549713</v>
+      </c>
+      <c r="K332" t="n">
+        <v>5657</v>
       </c>
     </row>
     <row r="333">
@@ -10127,7 +12123,13 @@
         <v>366</v>
       </c>
       <c r="I333" t="n">
+        <v>910402.9375</v>
+      </c>
+      <c r="J333" t="n">
         <v>0.0016798604</v>
+      </c>
+      <c r="K333" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="334">
@@ -10156,7 +12158,13 @@
         <v>7217</v>
       </c>
       <c r="I334" t="n">
+        <v>112348.32031</v>
+      </c>
+      <c r="J334" t="n">
         <v>0.06226971</v>
+      </c>
+      <c r="K334" t="n">
+        <v>6229</v>
       </c>
     </row>
     <row r="335">
@@ -10185,7 +12193,13 @@
         <v>7814</v>
       </c>
       <c r="I335" t="n">
+        <v>111767.53125</v>
+      </c>
+      <c r="J335" t="n">
         <v>0.06798972189999999</v>
+      </c>
+      <c r="K335" t="n">
+        <v>6801</v>
       </c>
     </row>
     <row r="336">
@@ -10214,7 +12228,13 @@
         <v>8112</v>
       </c>
       <c r="I336" t="n">
+        <v>111044.17969</v>
+      </c>
+      <c r="J336" t="n">
         <v>0.0708698332</v>
+      </c>
+      <c r="K336" t="n">
+        <v>7089</v>
       </c>
     </row>
     <row r="337">
@@ -10243,7 +12263,13 @@
         <v>787</v>
       </c>
       <c r="I337" t="n">
+        <v>323810.25</v>
+      </c>
+      <c r="J337" t="n">
         <v>0.0045498163</v>
+      </c>
+      <c r="K337" t="n">
+        <v>457</v>
       </c>
     </row>
     <row r="338">
@@ -10272,7 +12298,13 @@
         <v>60</v>
       </c>
       <c r="I338" t="n">
+        <v>6368836</v>
+      </c>
+      <c r="J338" t="n">
         <v>0.0002599884</v>
+      </c>
+      <c r="K338" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="339">
@@ -10301,7 +12333,13 @@
         <v>1317</v>
       </c>
       <c r="I339" t="n">
+        <v>209345.42188</v>
+      </c>
+      <c r="J339" t="n">
         <v>0.0084297908</v>
+      </c>
+      <c r="K339" t="n">
+        <v>845</v>
       </c>
     </row>
     <row r="340">
@@ -10330,7 +12368,13 @@
         <v>1886</v>
       </c>
       <c r="I340" t="n">
+        <v>167019.71875</v>
+      </c>
+      <c r="J340" t="n">
         <v>0.0130197816</v>
+      </c>
+      <c r="K340" t="n">
+        <v>1304</v>
       </c>
     </row>
     <row r="341">
@@ -10359,7 +12403,13 @@
         <v>2465</v>
       </c>
       <c r="I341" t="n">
+        <v>146918.53125</v>
+      </c>
+      <c r="J341" t="n">
         <v>0.0179699566</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1799</v>
       </c>
     </row>
     <row r="342">
@@ -10388,7 +12438,13 @@
         <v>3051</v>
       </c>
       <c r="I342" t="n">
+        <v>135545.70312</v>
+      </c>
+      <c r="J342" t="n">
         <v>0.023159856</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2318</v>
       </c>
     </row>
     <row r="343">
@@ -10417,7 +12473,13 @@
         <v>3641</v>
       </c>
       <c r="I343" t="n">
+        <v>129032.39844</v>
+      </c>
+      <c r="J343" t="n">
         <v>0.0284798928</v>
+      </c>
+      <c r="K343" t="n">
+        <v>2850</v>
       </c>
     </row>
     <row r="344">
@@ -10446,7 +12508,13 @@
         <v>4232</v>
       </c>
       <c r="I344" t="n">
+        <v>123607.25781</v>
+      </c>
+      <c r="J344" t="n">
         <v>0.0339397267</v>
+      </c>
+      <c r="K344" t="n">
+        <v>3396</v>
       </c>
     </row>
     <row r="345">
@@ -10475,7 +12543,13 @@
         <v>4825</v>
       </c>
       <c r="I345" t="n">
+        <v>120516.17969</v>
+      </c>
+      <c r="J345" t="n">
         <v>0.0394497439</v>
+      </c>
+      <c r="K345" t="n">
+        <v>3947</v>
       </c>
     </row>
     <row r="346">
@@ -10504,7 +12578,13 @@
         <v>5419</v>
       </c>
       <c r="I346" t="n">
+        <v>117581.44531</v>
+      </c>
+      <c r="J346" t="n">
         <v>0.045049753</v>
+      </c>
+      <c r="K346" t="n">
+        <v>4507</v>
       </c>
     </row>
     <row r="347">
@@ -10533,7 +12613,13 @@
         <v>6014</v>
       </c>
       <c r="I347" t="n">
+        <v>115899.72656</v>
+      </c>
+      <c r="J347" t="n">
         <v>0.0506699905</v>
+      </c>
+      <c r="K347" t="n">
+        <v>5069</v>
       </c>
     </row>
     <row r="348">
@@ -10562,7 +12648,13 @@
         <v>6610</v>
       </c>
       <c r="I348" t="n">
+        <v>114470.58594</v>
+      </c>
+      <c r="J348" t="n">
         <v>0.0563397929</v>
+      </c>
+      <c r="K348" t="n">
+        <v>5636</v>
       </c>
     </row>
     <row r="349">
@@ -10591,7 +12683,13 @@
         <v>365</v>
       </c>
       <c r="I349" t="n">
+        <v>937022.1875</v>
+      </c>
+      <c r="J349" t="n">
         <v>0.0016599363</v>
+      </c>
+      <c r="K349" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="350">
@@ -10620,7 +12718,13 @@
         <v>7206</v>
       </c>
       <c r="I350" t="n">
+        <v>112609.625</v>
+      </c>
+      <c r="J350" t="n">
         <v>0.0620598458</v>
+      </c>
+      <c r="K350" t="n">
+        <v>6208</v>
       </c>
     </row>
     <row r="351">
@@ -10649,7 +12753,13 @@
         <v>7802</v>
       </c>
       <c r="I351" t="n">
+        <v>111503.41406</v>
+      </c>
+      <c r="J351" t="n">
         <v>0.067779772</v>
+      </c>
+      <c r="K351" t="n">
+        <v>6780</v>
       </c>
     </row>
     <row r="352">
@@ -10678,7 +12788,13 @@
         <v>8100</v>
       </c>
       <c r="I352" t="n">
+        <v>111469.09375</v>
+      </c>
+      <c r="J352" t="n">
         <v>0.07064978030000001</v>
+      </c>
+      <c r="K352" t="n">
+        <v>7067</v>
       </c>
     </row>
     <row r="353">
@@ -10707,7 +12823,13 @@
         <v>780</v>
       </c>
       <c r="I353" t="n">
+        <v>331556.53125</v>
+      </c>
+      <c r="J353" t="n">
         <v>0.0044899788</v>
+      </c>
+      <c r="K353" t="n">
+        <v>451</v>
       </c>
     </row>
     <row r="354">
@@ -10736,7 +12858,13 @@
         <v>103</v>
       </c>
       <c r="I354" t="n">
+        <v>1893120</v>
+      </c>
+      <c r="J354" t="n">
         <v>0.00041986</v>
+      </c>
+      <c r="K354" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="355">
@@ -10765,7 +12893,13 @@
         <v>1701</v>
       </c>
       <c r="I355" t="n">
+        <v>128853</v>
+      </c>
+      <c r="J355" t="n">
         <v>0.0132999998</v>
+      </c>
+      <c r="K355" t="n">
+        <v>1332</v>
       </c>
     </row>
     <row r="356">
@@ -10794,7 +12928,13 @@
         <v>2293</v>
       </c>
       <c r="I356" t="n">
+        <v>120291</v>
+      </c>
+      <c r="J356" t="n">
         <v>0.0187899992</v>
+      </c>
+      <c r="K356" t="n">
+        <v>1881</v>
       </c>
     </row>
     <row r="357">
@@ -10823,7 +12963,13 @@
         <v>2888</v>
       </c>
       <c r="I357" t="n">
+        <v>115567</v>
+      </c>
+      <c r="J357" t="n">
         <v>0.0244100001</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2443</v>
       </c>
     </row>
     <row r="358">
@@ -10852,7 +12998,13 @@
         <v>3484</v>
       </c>
       <c r="I358" t="n">
+        <v>112574</v>
+      </c>
+      <c r="J358" t="n">
         <v>0.0301099997</v>
+      </c>
+      <c r="K358" t="n">
+        <v>3013</v>
       </c>
     </row>
     <row r="359">
@@ -10881,7 +13033,13 @@
         <v>4080</v>
       </c>
       <c r="I359" t="n">
+        <v>110195</v>
+      </c>
+      <c r="J359" t="n">
         <v>0.0358599983</v>
+      </c>
+      <c r="K359" t="n">
+        <v>3588</v>
       </c>
     </row>
     <row r="360">
@@ -10910,7 +13068,13 @@
         <v>4678</v>
       </c>
       <c r="I360" t="n">
+        <v>108718</v>
+      </c>
+      <c r="J360" t="n">
         <v>0.0416800007</v>
+      </c>
+      <c r="K360" t="n">
+        <v>4170</v>
       </c>
     </row>
     <row r="361">
@@ -10939,7 +13103,13 @@
         <v>5275</v>
       </c>
       <c r="I361" t="n">
+        <v>107833</v>
+      </c>
+      <c r="J361" t="n">
         <v>0.0474699996</v>
+      </c>
+      <c r="K361" t="n">
+        <v>4749</v>
       </c>
     </row>
     <row r="362">
@@ -10968,7 +13138,13 @@
         <v>5873</v>
       </c>
       <c r="I362" t="n">
+        <v>107017</v>
+      </c>
+      <c r="J362" t="n">
         <v>0.0533099994</v>
+      </c>
+      <c r="K362" t="n">
+        <v>5333</v>
       </c>
     </row>
     <row r="363">
@@ -10997,7 +13173,13 @@
         <v>6471</v>
       </c>
       <c r="I363" t="n">
+        <v>106426</v>
+      </c>
+      <c r="J363" t="n">
         <v>0.0591700003</v>
+      </c>
+      <c r="K363" t="n">
+        <v>5919</v>
       </c>
     </row>
     <row r="364">
@@ -11026,7 +13208,13 @@
         <v>7069</v>
       </c>
       <c r="I364" t="n">
+        <v>105875.47656</v>
+      </c>
+      <c r="J364" t="n">
         <v>0.0650397316</v>
+      </c>
+      <c r="K364" t="n">
+        <v>6506</v>
       </c>
     </row>
     <row r="365">
@@ -11055,7 +13243,13 @@
         <v>542</v>
       </c>
       <c r="I365" t="n">
+        <v>229876</v>
+      </c>
+      <c r="J365" t="n">
         <v>0.0033799999</v>
+      </c>
+      <c r="K365" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="366">
@@ -11084,7 +13278,13 @@
         <v>7667</v>
       </c>
       <c r="I366" t="n">
+        <v>105401.78906</v>
+      </c>
+      <c r="J366" t="n">
         <v>0.0709197149</v>
+      </c>
+      <c r="K366" t="n">
+        <v>7094</v>
       </c>
     </row>
     <row r="367">
@@ -11113,7 +13313,13 @@
         <v>8265</v>
       </c>
       <c r="I367" t="n">
+        <v>104999.89844</v>
+      </c>
+      <c r="J367" t="n">
         <v>0.0768099055</v>
+      </c>
+      <c r="K367" t="n">
+        <v>7683</v>
       </c>
     </row>
     <row r="368">
@@ -11142,7 +13348,13 @@
         <v>8564</v>
       </c>
       <c r="I368" t="n">
+        <v>104858.24219</v>
+      </c>
+      <c r="J368" t="n">
         <v>0.0797599256</v>
+      </c>
+      <c r="K368" t="n">
+        <v>7978</v>
       </c>
     </row>
     <row r="369">
@@ -11171,7 +13383,13 @@
         <v>1113</v>
       </c>
       <c r="I369" t="n">
+        <v>149255</v>
+      </c>
+      <c r="J369" t="n">
         <v>0.0080498997</v>
+      </c>
+      <c r="K369" t="n">
+        <v>807</v>
       </c>
     </row>
     <row r="370">
@@ -11200,7 +13418,13 @@
         <v>61</v>
       </c>
       <c r="I370" t="n">
+        <v>6858248</v>
+      </c>
+      <c r="J370" t="n">
         <v>0.0002499816</v>
+      </c>
+      <c r="K370" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="371">
@@ -11229,7 +13453,13 @@
         <v>1309</v>
       </c>
       <c r="I371" t="n">
+        <v>212451.95312</v>
+      </c>
+      <c r="J371" t="n">
         <v>0.008349774399999999</v>
+      </c>
+      <c r="K371" t="n">
+        <v>837</v>
       </c>
     </row>
     <row r="372">
@@ -11258,7 +13488,13 @@
         <v>1876</v>
       </c>
       <c r="I372" t="n">
+        <v>169519.39062</v>
+      </c>
+      <c r="J372" t="n">
         <v>0.0128998477</v>
+      </c>
+      <c r="K372" t="n">
+        <v>1292</v>
       </c>
     </row>
     <row r="373">
@@ -11287,7 +13523,13 @@
         <v>2456</v>
       </c>
       <c r="I373" t="n">
+        <v>148020.82812</v>
+      </c>
+      <c r="J373" t="n">
         <v>0.0178299639</v>
+      </c>
+      <c r="K373" t="n">
+        <v>1785</v>
       </c>
     </row>
     <row r="374">
@@ -11316,7 +13558,13 @@
         <v>3041</v>
       </c>
       <c r="I374" t="n">
+        <v>136914.5625</v>
+      </c>
+      <c r="J374" t="n">
         <v>0.0229998659</v>
+      </c>
+      <c r="K374" t="n">
+        <v>2302</v>
       </c>
     </row>
     <row r="375">
@@ -11345,7 +13593,13 @@
         <v>3630</v>
       </c>
       <c r="I375" t="n">
+        <v>129212.11719</v>
+      </c>
+      <c r="J375" t="n">
         <v>0.028319791</v>
+      </c>
+      <c r="K375" t="n">
+        <v>2834</v>
       </c>
     </row>
     <row r="376">
@@ -11374,7 +13628,13 @@
         <v>4222</v>
       </c>
       <c r="I376" t="n">
+        <v>124222.24219</v>
+      </c>
+      <c r="J376" t="n">
         <v>0.0337597243</v>
+      </c>
+      <c r="K376" t="n">
+        <v>3378</v>
       </c>
     </row>
     <row r="377">
@@ -11403,7 +13663,13 @@
         <v>4815</v>
       </c>
       <c r="I377" t="n">
+        <v>120532.94531</v>
+      </c>
+      <c r="J377" t="n">
         <v>0.0392899066</v>
+      </c>
+      <c r="K377" t="n">
+        <v>3931</v>
       </c>
     </row>
     <row r="378">
@@ -11432,7 +13698,13 @@
         <v>5409</v>
       </c>
       <c r="I378" t="n">
+        <v>118048.28125</v>
+      </c>
+      <c r="J378" t="n">
         <v>0.0448497795</v>
+      </c>
+      <c r="K378" t="n">
+        <v>4487</v>
       </c>
     </row>
     <row r="379">
@@ -11461,7 +13733,13 @@
         <v>6003</v>
       </c>
       <c r="I379" t="n">
+        <v>116406.58594</v>
+      </c>
+      <c r="J379" t="n">
         <v>0.0504798815</v>
+      </c>
+      <c r="K379" t="n">
+        <v>5050</v>
       </c>
     </row>
     <row r="380">
@@ -11490,7 +13768,13 @@
         <v>6599</v>
       </c>
       <c r="I380" t="n">
+        <v>114385.41406</v>
+      </c>
+      <c r="J380" t="n">
         <v>0.0561498813</v>
+      </c>
+      <c r="K380" t="n">
+        <v>5617</v>
       </c>
     </row>
     <row r="381">
@@ -11519,7 +13803,13 @@
         <v>364</v>
       </c>
       <c r="I381" t="n">
+        <v>966725.25</v>
+      </c>
+      <c r="J381" t="n">
         <v>0.0016398969</v>
+      </c>
+      <c r="K381" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="382">
@@ -11548,7 +13838,13 @@
         <v>7195</v>
       </c>
       <c r="I382" t="n">
+        <v>112976.42969</v>
+      </c>
+      <c r="J382" t="n">
         <v>0.0618498996</v>
+      </c>
+      <c r="K382" t="n">
+        <v>6187</v>
       </c>
     </row>
     <row r="383">
@@ -11577,7 +13873,13 @@
         <v>7791</v>
       </c>
       <c r="I383" t="n">
+        <v>111812.35156</v>
+      </c>
+      <c r="J383" t="n">
         <v>0.0675697848</v>
+      </c>
+      <c r="K383" t="n">
+        <v>6759</v>
       </c>
     </row>
     <row r="384">
@@ -11606,7 +13908,13 @@
         <v>8089</v>
       </c>
       <c r="I384" t="n">
+        <v>111183.66406</v>
+      </c>
+      <c r="J384" t="n">
         <v>0.070479773</v>
+      </c>
+      <c r="K384" t="n">
+        <v>7050</v>
       </c>
     </row>
     <row r="385">
@@ -11635,7 +13943,13 @@
         <v>774</v>
       </c>
       <c r="I385" t="n">
+        <v>337861.875</v>
+      </c>
+      <c r="J385" t="n">
         <v>0.0044399239</v>
+      </c>
+      <c r="K385" t="n">
+        <v>446</v>
       </c>
     </row>
     <row r="386">
@@ -11664,7 +13978,13 @@
         <v>62</v>
       </c>
       <c r="I386" t="n">
+        <v>7321286.5</v>
+      </c>
+      <c r="J386" t="n">
         <v>0.0002499601</v>
+      </c>
+      <c r="K386" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="387">
@@ -11693,7 +14013,13 @@
         <v>1301</v>
       </c>
       <c r="I387" t="n">
+        <v>216018.70312</v>
+      </c>
+      <c r="J387" t="n">
         <v>0.0082599353</v>
+      </c>
+      <c r="K387" t="n">
+        <v>828</v>
       </c>
     </row>
     <row r="388">
@@ -11722,7 +14048,13 @@
         <v>1867</v>
       </c>
       <c r="I388" t="n">
+        <v>171192.40625</v>
+      </c>
+      <c r="J388" t="n">
         <v>0.0127899889</v>
+      </c>
+      <c r="K388" t="n">
+        <v>1281</v>
       </c>
     </row>
     <row r="389">
@@ -11751,7 +14083,13 @@
         <v>2446</v>
       </c>
       <c r="I389" t="n">
+        <v>149002.57812</v>
+      </c>
+      <c r="J389" t="n">
         <v>0.0177098345</v>
+      </c>
+      <c r="K389" t="n">
+        <v>1773</v>
       </c>
     </row>
     <row r="390">
@@ -11780,7 +14118,13 @@
         <v>3031</v>
       </c>
       <c r="I390" t="n">
+        <v>137078.57812</v>
+      </c>
+      <c r="J390" t="n">
         <v>0.0228699595</v>
+      </c>
+      <c r="K390" t="n">
+        <v>2289</v>
       </c>
     </row>
     <row r="391">
@@ -11809,7 +14153,13 @@
         <v>3620</v>
       </c>
       <c r="I391" t="n">
+        <v>129671.19531</v>
+      </c>
+      <c r="J391" t="n">
         <v>0.028179815</v>
+      </c>
+      <c r="K391" t="n">
+        <v>2820</v>
       </c>
     </row>
     <row r="392">
@@ -11838,7 +14188,13 @@
         <v>4211</v>
       </c>
       <c r="I392" t="n">
+        <v>125112.27344</v>
+      </c>
+      <c r="J392" t="n">
         <v>0.0335898995</v>
+      </c>
+      <c r="K392" t="n">
+        <v>3361</v>
       </c>
     </row>
     <row r="393">
@@ -11867,7 +14223,13 @@
         <v>4804</v>
       </c>
       <c r="I393" t="n">
+        <v>121632.64844</v>
+      </c>
+      <c r="J393" t="n">
         <v>0.0390998684</v>
+      </c>
+      <c r="K393" t="n">
+        <v>3912</v>
       </c>
     </row>
     <row r="394">
@@ -11896,7 +14258,13 @@
         <v>5398</v>
       </c>
       <c r="I394" t="n">
+        <v>118604.33594</v>
+      </c>
+      <c r="J394" t="n">
         <v>0.0446697921</v>
+      </c>
+      <c r="K394" t="n">
+        <v>4469</v>
       </c>
     </row>
     <row r="395">
@@ -11925,7 +14293,13 @@
         <v>5993</v>
       </c>
       <c r="I395" t="n">
+        <v>116106.59375</v>
+      </c>
+      <c r="J395" t="n">
         <v>0.0503099822</v>
+      </c>
+      <c r="K395" t="n">
+        <v>5033</v>
       </c>
     </row>
     <row r="396">
@@ -11954,7 +14328,13 @@
         <v>6588</v>
       </c>
       <c r="I396" t="n">
+        <v>114417.28906</v>
+      </c>
+      <c r="J396" t="n">
         <v>0.0559699424</v>
+      </c>
+      <c r="K396" t="n">
+        <v>5599</v>
       </c>
     </row>
     <row r="397">
@@ -11983,7 +14363,13 @@
         <v>364</v>
       </c>
       <c r="I397" t="n">
+        <v>1000329.1875</v>
+      </c>
+      <c r="J397" t="n">
         <v>0.0016197627</v>
+      </c>
+      <c r="K397" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="398">
@@ -12012,7 +14398,13 @@
         <v>7184</v>
       </c>
       <c r="I398" t="n">
+        <v>113533.80469</v>
+      </c>
+      <c r="J398" t="n">
         <v>0.0616498031</v>
+      </c>
+      <c r="K398" t="n">
+        <v>6167</v>
       </c>
     </row>
     <row r="399">
@@ -12041,7 +14433,13 @@
         <v>7780</v>
       </c>
       <c r="I399" t="n">
+        <v>112321.82031</v>
+      </c>
+      <c r="J399" t="n">
         <v>0.0673697367</v>
+      </c>
+      <c r="K399" t="n">
+        <v>6739</v>
       </c>
     </row>
     <row r="400">
@@ -12070,7 +14468,13 @@
         <v>8078</v>
       </c>
       <c r="I400" t="n">
+        <v>111829.42969</v>
+      </c>
+      <c r="J400" t="n">
         <v>0.07023971530000001</v>
+      </c>
+      <c r="K400" t="n">
+        <v>7026</v>
       </c>
     </row>
     <row r="401">
@@ -12099,7 +14503,13 @@
         <v>768</v>
       </c>
       <c r="I401" t="n">
+        <v>347338.6875</v>
+      </c>
+      <c r="J401" t="n">
         <v>0.0043799118</v>
+      </c>
+      <c r="K401" t="n">
+        <v>440</v>
       </c>
     </row>
     <row r="402">
@@ -12128,7 +14538,13 @@
         <v>63</v>
       </c>
       <c r="I402" t="n">
+        <v>7276388.5</v>
+      </c>
+      <c r="J402" t="n">
         <v>0.0002499881</v>
+      </c>
+      <c r="K402" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="403">
@@ -12157,7 +14573,13 @@
         <v>1293</v>
       </c>
       <c r="I403" t="n">
+        <v>218600.8125</v>
+      </c>
+      <c r="J403" t="n">
         <v>0.0081797633</v>
+      </c>
+      <c r="K403" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="404">
@@ -12186,7 +14608,13 @@
         <v>1858</v>
       </c>
       <c r="I404" t="n">
+        <v>172042.85938</v>
+      </c>
+      <c r="J404" t="n">
         <v>0.0126798907</v>
+      </c>
+      <c r="K404" t="n">
+        <v>1270</v>
       </c>
     </row>
     <row r="405">
@@ -12215,7 +14643,13 @@
         <v>2436</v>
       </c>
       <c r="I405" t="n">
+        <v>150054.95312</v>
+      </c>
+      <c r="J405" t="n">
         <v>0.017589815</v>
+      </c>
+      <c r="K405" t="n">
+        <v>1761</v>
       </c>
     </row>
     <row r="406">
@@ -12244,7 +14678,13 @@
         <v>3021</v>
       </c>
       <c r="I406" t="n">
+        <v>137823.75</v>
+      </c>
+      <c r="J406" t="n">
         <v>0.0227298867</v>
+      </c>
+      <c r="K406" t="n">
+        <v>2275</v>
       </c>
     </row>
     <row r="407">
@@ -12273,7 +14713,13 @@
         <v>3610</v>
       </c>
       <c r="I407" t="n">
+        <v>130158.5625</v>
+      </c>
+      <c r="J407" t="n">
         <v>0.0280298851</v>
+      </c>
+      <c r="K407" t="n">
+        <v>2805</v>
       </c>
     </row>
     <row r="408">
@@ -12302,7 +14748,13 @@
         <v>4201</v>
       </c>
       <c r="I408" t="n">
+        <v>125416.60156</v>
+      </c>
+      <c r="J408" t="n">
         <v>0.0334299318</v>
+      </c>
+      <c r="K408" t="n">
+        <v>3345</v>
       </c>
     </row>
     <row r="409">
@@ -12331,7 +14783,13 @@
         <v>4793</v>
       </c>
       <c r="I409" t="n">
+        <v>121742.82031</v>
+      </c>
+      <c r="J409" t="n">
         <v>0.0389297679</v>
+      </c>
+      <c r="K409" t="n">
+        <v>3895</v>
       </c>
     </row>
     <row r="410">
@@ -12360,7 +14818,13 @@
         <v>5387</v>
       </c>
       <c r="I410" t="n">
+        <v>118508.15625</v>
+      </c>
+      <c r="J410" t="n">
         <v>0.0445098653</v>
+      </c>
+      <c r="K410" t="n">
+        <v>4453</v>
       </c>
     </row>
     <row r="411">
@@ -12389,7 +14853,13 @@
         <v>5982</v>
       </c>
       <c r="I411" t="n">
+        <v>116817.71094</v>
+      </c>
+      <c r="J411" t="n">
         <v>0.0501099639</v>
+      </c>
+      <c r="K411" t="n">
+        <v>5013</v>
       </c>
     </row>
     <row r="412">
@@ -12418,7 +14888,13 @@
         <v>6577</v>
       </c>
       <c r="I412" t="n">
+        <v>114667.66406</v>
+      </c>
+      <c r="J412" t="n">
         <v>0.0557797961</v>
+      </c>
+      <c r="K412" t="n">
+        <v>5580</v>
       </c>
     </row>
     <row r="413">
@@ -12447,7 +14923,13 @@
         <v>363</v>
       </c>
       <c r="I413" t="n">
+        <v>1021481.3125</v>
+      </c>
+      <c r="J413" t="n">
         <v>0.0015998841</v>
+      </c>
+      <c r="K413" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="414">
@@ -12476,7 +14958,13 @@
         <v>7173</v>
       </c>
       <c r="I414" t="n">
+        <v>113268.85156</v>
+      </c>
+      <c r="J414" t="n">
         <v>0.0614697114</v>
+      </c>
+      <c r="K414" t="n">
+        <v>6149</v>
       </c>
     </row>
     <row r="415">
@@ -12505,7 +14993,13 @@
         <v>7769</v>
       </c>
       <c r="I415" t="n">
+        <v>112528.24219</v>
+      </c>
+      <c r="J415" t="n">
         <v>0.06716973330000001</v>
+      </c>
+      <c r="K415" t="n">
+        <v>6719</v>
       </c>
     </row>
     <row r="416">
@@ -12534,7 +15028,13 @@
         <v>8067</v>
       </c>
       <c r="I416" t="n">
+        <v>112001.90625</v>
+      </c>
+      <c r="J416" t="n">
         <v>0.07003998760000001</v>
+      </c>
+      <c r="K416" t="n">
+        <v>7006</v>
       </c>
     </row>
     <row r="417">
@@ -12563,7 +15063,13 @@
         <v>762</v>
       </c>
       <c r="I417" t="n">
+        <v>353864.65625</v>
+      </c>
+      <c r="J417" t="n">
         <v>0.0043299161</v>
+      </c>
+      <c r="K417" t="n">
+        <v>435</v>
       </c>
     </row>
     <row r="418">
@@ -12592,7 +15098,13 @@
         <v>64</v>
       </c>
       <c r="I418" t="n">
+        <v>7245041.5</v>
+      </c>
+      <c r="J418" t="n">
         <v>0.0002499194</v>
+      </c>
+      <c r="K418" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="419">
@@ -12621,7 +15133,13 @@
         <v>1285</v>
       </c>
       <c r="I419" t="n">
+        <v>221605.60938</v>
+      </c>
+      <c r="J419" t="n">
         <v>0.0080999713</v>
+      </c>
+      <c r="K419" t="n">
+        <v>812</v>
       </c>
     </row>
     <row r="420">
@@ -12650,7 +15168,13 @@
         <v>1849</v>
       </c>
       <c r="I420" t="n">
+        <v>174341.71875</v>
+      </c>
+      <c r="J420" t="n">
         <v>0.0125799375</v>
+      </c>
+      <c r="K420" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="421">
@@ -12679,7 +15203,13 @@
         <v>2427</v>
       </c>
       <c r="I421" t="n">
+        <v>151184.01562</v>
+      </c>
+      <c r="J421" t="n">
         <v>0.017459901</v>
+      </c>
+      <c r="K421" t="n">
+        <v>1748</v>
       </c>
     </row>
     <row r="422">
@@ -12708,7 +15238,13 @@
         <v>3012</v>
       </c>
       <c r="I422" t="n">
+        <v>139498.42188</v>
+      </c>
+      <c r="J422" t="n">
         <v>0.0225799866</v>
+      </c>
+      <c r="K422" t="n">
+        <v>2260</v>
       </c>
     </row>
     <row r="423">
@@ -12737,7 +15273,13 @@
         <v>3600</v>
       </c>
       <c r="I423" t="n">
+        <v>131488.4375</v>
+      </c>
+      <c r="J423" t="n">
         <v>0.0278698877</v>
+      </c>
+      <c r="K423" t="n">
+        <v>2789</v>
       </c>
     </row>
     <row r="424">
@@ -12766,7 +15308,13 @@
         <v>4191</v>
       </c>
       <c r="I424" t="n">
+        <v>125472.03125</v>
+      </c>
+      <c r="J424" t="n">
         <v>0.0332898535</v>
+      </c>
+      <c r="K424" t="n">
+        <v>3331</v>
       </c>
     </row>
     <row r="425">
@@ -12795,7 +15343,13 @@
         <v>4783</v>
       </c>
       <c r="I425" t="n">
+        <v>121879.15625</v>
+      </c>
+      <c r="J425" t="n">
         <v>0.0387699381</v>
+      </c>
+      <c r="K425" t="n">
+        <v>3879</v>
       </c>
     </row>
     <row r="426">
@@ -12824,7 +15378,13 @@
         <v>5377</v>
       </c>
       <c r="I426" t="n">
+        <v>118846.125</v>
+      </c>
+      <c r="J426" t="n">
         <v>0.0443398431</v>
+      </c>
+      <c r="K426" t="n">
+        <v>4436</v>
       </c>
     </row>
     <row r="427">
@@ -12853,7 +15413,13 @@
         <v>5971</v>
       </c>
       <c r="I427" t="n">
+        <v>116641.99219</v>
+      </c>
+      <c r="J427" t="n">
         <v>0.0499499403</v>
+      </c>
+      <c r="K427" t="n">
+        <v>4997</v>
       </c>
     </row>
     <row r="428">
@@ -12882,7 +15448,13 @@
         <v>6567</v>
       </c>
       <c r="I428" t="n">
+        <v>114867.25</v>
+      </c>
+      <c r="J428" t="n">
         <v>0.0555997975</v>
+      </c>
+      <c r="K428" t="n">
+        <v>5562</v>
       </c>
     </row>
     <row r="429">
@@ -12911,7 +15483,13 @@
         <v>363</v>
       </c>
       <c r="I429" t="n">
+        <v>1040965.4375</v>
+      </c>
+      <c r="J429" t="n">
         <v>0.0015898737</v>
+      </c>
+      <c r="K429" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="430">
@@ -12940,7 +15518,13 @@
         <v>7162</v>
       </c>
       <c r="I430" t="n">
+        <v>113967.92969</v>
+      </c>
+      <c r="J430" t="n">
         <v>0.0612697713</v>
+      </c>
+      <c r="K430" t="n">
+        <v>6129</v>
       </c>
     </row>
     <row r="431">
@@ -12969,7 +15553,13 @@
         <v>7758</v>
       </c>
       <c r="I431" t="n">
+        <v>112285.84375</v>
+      </c>
+      <c r="J431" t="n">
         <v>0.0669997856</v>
+      </c>
+      <c r="K431" t="n">
+        <v>6702</v>
       </c>
     </row>
     <row r="432">
@@ -12998,7 +15588,13 @@
         <v>8057</v>
       </c>
       <c r="I432" t="n">
+        <v>112229.19531</v>
+      </c>
+      <c r="J432" t="n">
         <v>0.0698496997</v>
+      </c>
+      <c r="K432" t="n">
+        <v>6987</v>
       </c>
     </row>
     <row r="433">
@@ -13027,7 +15623,13 @@
         <v>756</v>
       </c>
       <c r="I433" t="n">
+        <v>362002.53125</v>
+      </c>
+      <c r="J433" t="n">
         <v>0.0042799986</v>
+      </c>
+      <c r="K433" t="n">
+        <v>430</v>
       </c>
     </row>
     <row r="434">
@@ -13056,7 +15658,13 @@
         <v>65</v>
       </c>
       <c r="I434" t="n">
+        <v>7215439.5</v>
+      </c>
+      <c r="J434" t="n">
         <v>0.0002499484</v>
+      </c>
+      <c r="K434" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="435">
@@ -13085,7 +15693,13 @@
         <v>1277</v>
       </c>
       <c r="I435" t="n">
+        <v>225478.6875</v>
+      </c>
+      <c r="J435" t="n">
         <v>0.008019921399999999</v>
+      </c>
+      <c r="K435" t="n">
+        <v>804</v>
       </c>
     </row>
     <row r="436">
@@ -13114,7 +15728,13 @@
         <v>1841</v>
       </c>
       <c r="I436" t="n">
+        <v>175230.07812</v>
+      </c>
+      <c r="J436" t="n">
         <v>0.012489832</v>
+      </c>
+      <c r="K436" t="n">
+        <v>1251</v>
       </c>
     </row>
     <row r="437">
@@ -13143,7 +15763,13 @@
         <v>2419</v>
       </c>
       <c r="I437" t="n">
+        <v>153032.26562</v>
+      </c>
+      <c r="J437" t="n">
         <v>0.0173399616</v>
+      </c>
+      <c r="K437" t="n">
+        <v>1736</v>
       </c>
     </row>
     <row r="438">
@@ -13172,7 +15798,13 @@
         <v>3003</v>
       </c>
       <c r="I438" t="n">
+        <v>140232.6875</v>
+      </c>
+      <c r="J438" t="n">
         <v>0.0224499404</v>
+      </c>
+      <c r="K438" t="n">
+        <v>2247</v>
       </c>
     </row>
     <row r="439">
@@ -13201,7 +15833,13 @@
         <v>3591</v>
       </c>
       <c r="I439" t="n">
+        <v>131880.23438</v>
+      </c>
+      <c r="J439" t="n">
         <v>0.0277298298</v>
+      </c>
+      <c r="K439" t="n">
+        <v>2775</v>
       </c>
     </row>
     <row r="440">
@@ -13230,7 +15868,13 @@
         <v>4181</v>
       </c>
       <c r="I440" t="n">
+        <v>125907.74219</v>
+      </c>
+      <c r="J440" t="n">
         <v>0.0331399739</v>
+      </c>
+      <c r="K440" t="n">
+        <v>3316</v>
       </c>
     </row>
     <row r="441">
@@ -13259,7 +15903,13 @@
         <v>4774</v>
       </c>
       <c r="I441" t="n">
+        <v>122746.25781</v>
+      </c>
+      <c r="J441" t="n">
         <v>0.0386097506</v>
+      </c>
+      <c r="K441" t="n">
+        <v>3863</v>
       </c>
     </row>
     <row r="442">
@@ -13288,7 +15938,13 @@
         <v>5367</v>
       </c>
       <c r="I442" t="n">
+        <v>119684.71094</v>
+      </c>
+      <c r="J442" t="n">
         <v>0.0441597328</v>
+      </c>
+      <c r="K442" t="n">
+        <v>4418</v>
       </c>
     </row>
     <row r="443">
@@ -13317,7 +15973,13 @@
         <v>5962</v>
       </c>
       <c r="I443" t="n">
+        <v>116901.77344</v>
+      </c>
+      <c r="J443" t="n">
         <v>0.0497798622</v>
+      </c>
+      <c r="K443" t="n">
+        <v>4980</v>
       </c>
     </row>
     <row r="444">
@@ -13346,7 +16008,13 @@
         <v>6557</v>
       </c>
       <c r="I444" t="n">
+        <v>115677.07031</v>
+      </c>
+      <c r="J444" t="n">
         <v>0.0554098934</v>
+      </c>
+      <c r="K444" t="n">
+        <v>5543</v>
       </c>
     </row>
     <row r="445">
@@ -13375,7 +16043,13 @@
         <v>363</v>
       </c>
       <c r="I445" t="n">
+        <v>1081584.5</v>
+      </c>
+      <c r="J445" t="n">
         <v>0.0015698038</v>
+      </c>
+      <c r="K445" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="446">
@@ -13404,7 +16078,13 @@
         <v>7152</v>
       </c>
       <c r="I446" t="n">
+        <v>114169.28906</v>
+      </c>
+      <c r="J446" t="n">
         <v>0.0610898733</v>
+      </c>
+      <c r="K446" t="n">
+        <v>6111</v>
       </c>
     </row>
     <row r="447">
@@ -13433,7 +16113,13 @@
         <v>7748</v>
       </c>
       <c r="I447" t="n">
+        <v>112950.60156</v>
+      </c>
+      <c r="J447" t="n">
         <v>0.0667997897</v>
+      </c>
+      <c r="K447" t="n">
+        <v>6682</v>
       </c>
     </row>
     <row r="448">
@@ -13462,7 +16148,13 @@
         <v>8047</v>
       </c>
       <c r="I448" t="n">
+        <v>111944.5</v>
+      </c>
+      <c r="J448" t="n">
         <v>0.0696799085</v>
+      </c>
+      <c r="K448" t="n">
+        <v>6970</v>
       </c>
     </row>
     <row r="449">
@@ -13491,7 +16183,13 @@
         <v>751</v>
       </c>
       <c r="I449" t="n">
+        <v>367342.21875</v>
+      </c>
+      <c r="J449" t="n">
         <v>0.0042399708</v>
+      </c>
+      <c r="K449" t="n">
+        <v>426</v>
       </c>
     </row>
     <row r="450">
@@ -13520,7 +16218,13 @@
         <v>66</v>
       </c>
       <c r="I450" t="n">
+        <v>7191982.5</v>
+      </c>
+      <c r="J450" t="n">
         <v>0.0002499207</v>
+      </c>
+      <c r="K450" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="451">
@@ -13549,7 +16253,13 @@
         <v>1270</v>
       </c>
       <c r="I451" t="n">
+        <v>227605.5625</v>
+      </c>
+      <c r="J451" t="n">
         <v>0.0079498617</v>
+      </c>
+      <c r="K451" t="n">
+        <v>797</v>
       </c>
     </row>
     <row r="452">
@@ -13578,7 +16288,13 @@
         <v>1833</v>
       </c>
       <c r="I452" t="n">
+        <v>176858.42188</v>
+      </c>
+      <c r="J452" t="n">
         <v>0.0123899924</v>
+      </c>
+      <c r="K452" t="n">
+        <v>1241</v>
       </c>
     </row>
     <row r="453">
@@ -13607,7 +16323,13 @@
         <v>2410</v>
       </c>
       <c r="I453" t="n">
+        <v>153149.51562</v>
+      </c>
+      <c r="J453" t="n">
         <v>0.0172398705</v>
+      </c>
+      <c r="K453" t="n">
+        <v>1726</v>
       </c>
     </row>
     <row r="454">
@@ -13636,7 +16358,13 @@
         <v>2993</v>
       </c>
       <c r="I454" t="n">
+        <v>140714.92188</v>
+      </c>
+      <c r="J454" t="n">
         <v>0.0223199874</v>
+      </c>
+      <c r="K454" t="n">
+        <v>2234</v>
       </c>
     </row>
     <row r="455">
@@ -13665,7 +16393,13 @@
         <v>3581</v>
       </c>
       <c r="I455" t="n">
+        <v>132350.875</v>
+      </c>
+      <c r="J455" t="n">
         <v>0.0275898129</v>
+      </c>
+      <c r="K455" t="n">
+        <v>2761</v>
       </c>
     </row>
     <row r="456">
@@ -13694,7 +16428,13 @@
         <v>4172</v>
       </c>
       <c r="I456" t="n">
+        <v>126363.72656</v>
+      </c>
+      <c r="J456" t="n">
         <v>0.0329898261</v>
+      </c>
+      <c r="K456" t="n">
+        <v>3301</v>
       </c>
     </row>
     <row r="457">
@@ -13723,7 +16463,13 @@
         <v>4764</v>
       </c>
       <c r="I457" t="n">
+        <v>122497.53125</v>
+      </c>
+      <c r="J457" t="n">
         <v>0.038449917</v>
+      </c>
+      <c r="K457" t="n">
+        <v>3847</v>
       </c>
     </row>
     <row r="458">
@@ -13752,7 +16498,13 @@
         <v>5357</v>
       </c>
       <c r="I458" t="n">
+        <v>119627.71094</v>
+      </c>
+      <c r="J458" t="n">
         <v>0.0439998806</v>
+      </c>
+      <c r="K458" t="n">
+        <v>4402</v>
       </c>
     </row>
     <row r="459">
@@ -13781,7 +16533,13 @@
         <v>5951</v>
       </c>
       <c r="I459" t="n">
+        <v>117162.92969</v>
+      </c>
+      <c r="J459" t="n">
         <v>0.0496097766</v>
+      </c>
+      <c r="K459" t="n">
+        <v>4963</v>
       </c>
     </row>
     <row r="460">
@@ -13810,7 +16568,13 @@
         <v>6546</v>
       </c>
       <c r="I460" t="n">
+        <v>115336.9375</v>
+      </c>
+      <c r="J460" t="n">
         <v>0.0552498288</v>
+      </c>
+      <c r="K460" t="n">
+        <v>5527</v>
       </c>
     </row>
     <row r="461">
@@ -13839,7 +16603,13 @@
         <v>363</v>
       </c>
       <c r="I461" t="n">
+        <v>1090735.625</v>
+      </c>
+      <c r="J461" t="n">
         <v>0.0015598963</v>
+      </c>
+      <c r="K461" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="462">
@@ -13868,7 +16638,13 @@
         <v>7142</v>
       </c>
       <c r="I462" t="n">
+        <v>114363.03906</v>
+      </c>
+      <c r="J462" t="n">
         <v>0.0609099269</v>
+      </c>
+      <c r="K462" t="n">
+        <v>6093</v>
       </c>
     </row>
     <row r="463">
@@ -13897,7 +16673,13 @@
         <v>7738</v>
       </c>
       <c r="I463" t="n">
+        <v>112692.52344</v>
+      </c>
+      <c r="J463" t="n">
         <v>0.0666197836</v>
+      </c>
+      <c r="K463" t="n">
+        <v>6664</v>
       </c>
     </row>
     <row r="464">
@@ -13926,7 +16708,13 @@
         <v>8036</v>
       </c>
       <c r="I464" t="n">
+        <v>112452.72656</v>
+      </c>
+      <c r="J464" t="n">
         <v>0.06947970389999999</v>
+      </c>
+      <c r="K464" t="n">
+        <v>6950</v>
       </c>
     </row>
     <row r="465">
@@ -13955,7 +16743,13 @@
         <v>746</v>
       </c>
       <c r="I465" t="n">
+        <v>376023.875</v>
+      </c>
+      <c r="J465" t="n">
         <v>0.0041899038</v>
+      </c>
+      <c r="K465" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="466">
@@ -13984,7 +16778,13 @@
         <v>67</v>
       </c>
       <c r="I466" t="n">
+        <v>7176672</v>
+      </c>
+      <c r="J466" t="n">
         <v>0.0002499411</v>
+      </c>
+      <c r="K466" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="467">
@@ -14013,7 +16813,13 @@
         <v>1263</v>
       </c>
       <c r="I467" t="n">
+        <v>230718.45312</v>
+      </c>
+      <c r="J467" t="n">
         <v>0.0078799184</v>
+      </c>
+      <c r="K467" t="n">
+        <v>790</v>
       </c>
     </row>
     <row r="468">
@@ -14042,7 +16848,13 @@
         <v>1825</v>
       </c>
       <c r="I468" t="n">
+        <v>178342.32812</v>
+      </c>
+      <c r="J468" t="n">
         <v>0.0122998673</v>
+      </c>
+      <c r="K468" t="n">
+        <v>1232</v>
       </c>
     </row>
     <row r="469">
@@ -14071,7 +16883,13 @@
         <v>2402</v>
       </c>
       <c r="I469" t="n">
+        <v>154945.625</v>
+      </c>
+      <c r="J469" t="n">
         <v>0.017119782</v>
+      </c>
+      <c r="K469" t="n">
+        <v>1714</v>
       </c>
     </row>
     <row r="470">
@@ -14100,7 +16918,13 @@
         <v>2985</v>
       </c>
       <c r="I470" t="n">
+        <v>140715.32812</v>
+      </c>
+      <c r="J470" t="n">
         <v>0.022219874</v>
+      </c>
+      <c r="K470" t="n">
+        <v>2224</v>
       </c>
     </row>
     <row r="471">
@@ -14129,7 +16953,13 @@
         <v>3573</v>
       </c>
       <c r="I471" t="n">
+        <v>133156.42188</v>
+      </c>
+      <c r="J471" t="n">
         <v>0.0274598114</v>
+      </c>
+      <c r="K471" t="n">
+        <v>2748</v>
       </c>
     </row>
     <row r="472">
@@ -14158,7 +16988,13 @@
         <v>4163</v>
       </c>
       <c r="I472" t="n">
+        <v>127540.72656</v>
+      </c>
+      <c r="J472" t="n">
         <v>0.0328398868</v>
+      </c>
+      <c r="K472" t="n">
+        <v>3286</v>
       </c>
     </row>
     <row r="473">
@@ -14187,7 +17023,13 @@
         <v>4755</v>
       </c>
       <c r="I473" t="n">
+        <v>123433.42969</v>
+      </c>
+      <c r="J473" t="n">
         <v>0.0383098312</v>
+      </c>
+      <c r="K473" t="n">
+        <v>3833</v>
       </c>
     </row>
     <row r="474">
@@ -14216,7 +17058,13 @@
         <v>5348</v>
       </c>
       <c r="I474" t="n">
+        <v>120138.64844</v>
+      </c>
+      <c r="J474" t="n">
         <v>0.0438499041</v>
+      </c>
+      <c r="K474" t="n">
+        <v>4387</v>
       </c>
     </row>
     <row r="475">
@@ -14245,7 +17093,13 @@
         <v>5942</v>
       </c>
       <c r="I475" t="n">
+        <v>118001.58594</v>
+      </c>
+      <c r="J475" t="n">
         <v>0.0494399853</v>
+      </c>
+      <c r="K475" t="n">
+        <v>4946</v>
       </c>
     </row>
     <row r="476">
@@ -14274,7 +17128,13 @@
         <v>6537</v>
       </c>
       <c r="I476" t="n">
+        <v>115533.97656</v>
+      </c>
+      <c r="J476" t="n">
         <v>0.0550799258</v>
+      </c>
+      <c r="K476" t="n">
+        <v>5510</v>
       </c>
     </row>
     <row r="477">
@@ -14303,7 +17163,13 @@
         <v>363</v>
       </c>
       <c r="I477" t="n">
+        <v>1138461.25</v>
+      </c>
+      <c r="J477" t="n">
         <v>0.0015399298</v>
+      </c>
+      <c r="K477" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="478">
@@ -14332,7 +17198,13 @@
         <v>7133</v>
       </c>
       <c r="I478" t="n">
+        <v>114346.67969</v>
+      </c>
+      <c r="J478" t="n">
         <v>0.0607499331</v>
+      </c>
+      <c r="K478" t="n">
+        <v>6077</v>
       </c>
     </row>
     <row r="479">
@@ -14361,7 +17233,13 @@
         <v>7729</v>
       </c>
       <c r="I479" t="n">
+        <v>113241.24219</v>
+      </c>
+      <c r="J479" t="n">
         <v>0.0664498582</v>
+      </c>
+      <c r="K479" t="n">
+        <v>6647</v>
       </c>
     </row>
     <row r="480">
@@ -14390,7 +17268,13 @@
         <v>8027</v>
       </c>
       <c r="I480" t="n">
+        <v>112703.22656</v>
+      </c>
+      <c r="J480" t="n">
         <v>0.0693097562</v>
+      </c>
+      <c r="K480" t="n">
+        <v>6933</v>
       </c>
     </row>
     <row r="481">
@@ -14419,7 +17303,13 @@
         <v>741</v>
       </c>
       <c r="I481" t="n">
+        <v>382771.5</v>
+      </c>
+      <c r="J481" t="n">
         <v>0.0041499878</v>
+      </c>
+      <c r="K481" t="n">
+        <v>417</v>
       </c>
     </row>
     <row r="482">
@@ -14448,7 +17338,13 @@
         <v>68</v>
       </c>
       <c r="I482" t="n">
+        <v>7826052.5</v>
+      </c>
+      <c r="J482" t="n">
         <v>0.000239941</v>
+      </c>
+      <c r="K482" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="483">
@@ -14477,7 +17373,13 @@
         <v>1256</v>
       </c>
       <c r="I483" t="n">
+        <v>234308.75</v>
+      </c>
+      <c r="J483" t="n">
         <v>0.0078097815</v>
+      </c>
+      <c r="K483" t="n">
+        <v>783</v>
       </c>
     </row>
     <row r="484">
@@ -14506,7 +17408,13 @@
         <v>1818</v>
       </c>
       <c r="I484" t="n">
+        <v>179922</v>
+      </c>
+      <c r="J484" t="n">
         <v>0.0122099519</v>
+      </c>
+      <c r="K484" t="n">
+        <v>1223</v>
       </c>
     </row>
     <row r="485">
@@ -14535,7 +17443,13 @@
         <v>2393</v>
       </c>
       <c r="I485" t="n">
+        <v>155105.5</v>
+      </c>
+      <c r="J485" t="n">
         <v>0.0170299392</v>
+      </c>
+      <c r="K485" t="n">
+        <v>1705</v>
       </c>
     </row>
     <row r="486">
@@ -14564,7 +17478,13 @@
         <v>2976</v>
       </c>
       <c r="I486" t="n">
+        <v>141438.26562</v>
+      </c>
+      <c r="J486" t="n">
         <v>0.0220999997</v>
+      </c>
+      <c r="K486" t="n">
+        <v>2212</v>
       </c>
     </row>
     <row r="487">
@@ -14593,7 +17513,13 @@
         <v>3564</v>
       </c>
       <c r="I487" t="n">
+        <v>133313.17188</v>
+      </c>
+      <c r="J487" t="n">
         <v>0.0273299366</v>
+      </c>
+      <c r="K487" t="n">
+        <v>2735</v>
       </c>
     </row>
     <row r="488">
@@ -14622,7 +17548,13 @@
         <v>4154</v>
       </c>
       <c r="I488" t="n">
+        <v>127222.17969</v>
+      </c>
+      <c r="J488" t="n">
         <v>0.0326999128</v>
+      </c>
+      <c r="K488" t="n">
+        <v>3272</v>
       </c>
     </row>
     <row r="489">
@@ -14651,7 +17583,13 @@
         <v>4746</v>
       </c>
       <c r="I489" t="n">
+        <v>123064.89844</v>
+      </c>
+      <c r="J489" t="n">
         <v>0.0381798074</v>
+      </c>
+      <c r="K489" t="n">
+        <v>3820</v>
       </c>
     </row>
     <row r="490">
@@ -14680,7 +17618,13 @@
         <v>5339</v>
       </c>
       <c r="I490" t="n">
+        <v>120142.89844</v>
+      </c>
+      <c r="J490" t="n">
         <v>0.0436997972</v>
+      </c>
+      <c r="K490" t="n">
+        <v>4372</v>
       </c>
     </row>
     <row r="491">
@@ -14709,7 +17653,13 @@
         <v>5933</v>
       </c>
       <c r="I491" t="n">
+        <v>117649</v>
+      </c>
+      <c r="J491" t="n">
         <v>0.0492998734</v>
+      </c>
+      <c r="K491" t="n">
+        <v>4932</v>
       </c>
     </row>
     <row r="492">
@@ -14738,7 +17688,13 @@
         <v>6528</v>
       </c>
       <c r="I492" t="n">
+        <v>115776.46094</v>
+      </c>
+      <c r="J492" t="n">
         <v>0.0549299121</v>
+      </c>
+      <c r="K492" t="n">
+        <v>5495</v>
       </c>
     </row>
     <row r="493">
@@ -14767,7 +17723,13 @@
         <v>363</v>
       </c>
       <c r="I493" t="n">
+        <v>1150534.625</v>
+      </c>
+      <c r="J493" t="n">
         <v>0.0015298789</v>
+      </c>
+      <c r="K493" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="494">
@@ -14796,7 +17758,13 @@
         <v>7123</v>
       </c>
       <c r="I494" t="n">
+        <v>114642.55469</v>
+      </c>
+      <c r="J494" t="n">
         <v>0.0605797768</v>
+      </c>
+      <c r="K494" t="n">
+        <v>6060</v>
       </c>
     </row>
     <row r="495">
@@ -14825,7 +17793,13 @@
         <v>7719</v>
       </c>
       <c r="I495" t="n">
+        <v>113435.21094</v>
+      </c>
+      <c r="J495" t="n">
         <v>0.0662797317</v>
+      </c>
+      <c r="K495" t="n">
+        <v>6630</v>
       </c>
     </row>
     <row r="496">
@@ -14854,7 +17828,13 @@
         <v>8017</v>
       </c>
       <c r="I496" t="n">
+        <v>112669.77344</v>
+      </c>
+      <c r="J496" t="n">
         <v>0.0691397339</v>
+      </c>
+      <c r="K496" t="n">
+        <v>6916</v>
       </c>
     </row>
     <row r="497">
@@ -14883,7 +17863,13 @@
         <v>736</v>
       </c>
       <c r="I497" t="n">
+        <v>389928.78125</v>
+      </c>
+      <c r="J497" t="n">
         <v>0.004109832</v>
+      </c>
+      <c r="K497" t="n">
+        <v>413</v>
       </c>
     </row>
     <row r="498">
@@ -14912,7 +17898,13 @@
         <v>68</v>
       </c>
       <c r="I498" t="n">
+        <v>8288154</v>
+      </c>
+      <c r="J498" t="n">
         <v>0.0002399219</v>
+      </c>
+      <c r="K498" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="499">
@@ -14941,7 +17933,13 @@
         <v>1249</v>
       </c>
       <c r="I499" t="n">
+        <v>236178.17188</v>
+      </c>
+      <c r="J499" t="n">
         <v>0.007749903</v>
+      </c>
+      <c r="K499" t="n">
+        <v>777</v>
       </c>
     </row>
     <row r="500">
@@ -14970,7 +17968,13 @@
         <v>1810</v>
       </c>
       <c r="I500" t="n">
+        <v>181687.35938</v>
+      </c>
+      <c r="J500" t="n">
         <v>0.0121198846</v>
+      </c>
+      <c r="K500" t="n">
+        <v>1214</v>
       </c>
     </row>
     <row r="501">
@@ -14999,7 +18003,13 @@
         <v>2385</v>
       </c>
       <c r="I501" t="n">
+        <v>157097.1875</v>
+      </c>
+      <c r="J501" t="n">
         <v>0.0169098843</v>
+      </c>
+      <c r="K501" t="n">
+        <v>1693</v>
       </c>
     </row>
     <row r="502">
@@ -15028,7 +18038,13 @@
         <v>2968</v>
       </c>
       <c r="I502" t="n">
+        <v>142445.25</v>
+      </c>
+      <c r="J502" t="n">
         <v>0.0219699591</v>
+      </c>
+      <c r="K502" t="n">
+        <v>2199</v>
       </c>
     </row>
     <row r="503">
@@ -15057,7 +18073,13 @@
         <v>3555</v>
       </c>
       <c r="I503" t="n">
+        <v>133406.57812</v>
+      </c>
+      <c r="J503" t="n">
         <v>0.0272198394</v>
+      </c>
+      <c r="K503" t="n">
+        <v>2724</v>
       </c>
     </row>
     <row r="504">
@@ -15086,7 +18108,13 @@
         <v>4145</v>
       </c>
       <c r="I504" t="n">
+        <v>127597</v>
+      </c>
+      <c r="J504" t="n">
         <v>0.0325797237</v>
+      </c>
+      <c r="K504" t="n">
+        <v>3260</v>
       </c>
     </row>
     <row r="505">
@@ -15115,7 +18143,13 @@
         <v>4736</v>
       </c>
       <c r="I505" t="n">
+        <v>124155.27344</v>
+      </c>
+      <c r="J505" t="n">
         <v>0.0380197652</v>
+      </c>
+      <c r="K505" t="n">
+        <v>3804</v>
       </c>
     </row>
     <row r="506">
@@ -15144,7 +18178,13 @@
         <v>5330</v>
       </c>
       <c r="I506" t="n">
+        <v>120310.52344</v>
+      </c>
+      <c r="J506" t="n">
         <v>0.0435599424</v>
+      </c>
+      <c r="K506" t="n">
+        <v>4358</v>
       </c>
     </row>
     <row r="507">
@@ -15173,7 +18213,13 @@
         <v>5924</v>
       </c>
       <c r="I507" t="n">
+        <v>118245.22656</v>
+      </c>
+      <c r="J507" t="n">
         <v>0.0491297841</v>
+      </c>
+      <c r="K507" t="n">
+        <v>4915</v>
       </c>
     </row>
     <row r="508">
@@ -15202,7 +18248,13 @@
         <v>6518</v>
       </c>
       <c r="I508" t="n">
+        <v>115990.94531</v>
+      </c>
+      <c r="J508" t="n">
         <v>0.0547697544</v>
+      </c>
+      <c r="K508" t="n">
+        <v>5479</v>
       </c>
     </row>
     <row r="509">
@@ -15231,7 +18283,13 @@
         <v>363</v>
       </c>
       <c r="I509" t="n">
+        <v>1163971.25</v>
+      </c>
+      <c r="J509" t="n">
         <v>0.0015199939</v>
+      </c>
+      <c r="K509" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="510">
@@ -15260,7 +18318,13 @@
         <v>7114</v>
       </c>
       <c r="I510" t="n">
+        <v>114483.16406</v>
+      </c>
+      <c r="J510" t="n">
         <v>0.0604197048</v>
+      </c>
+      <c r="K510" t="n">
+        <v>6044</v>
       </c>
     </row>
     <row r="511">
@@ -15289,7 +18353,13 @@
         <v>7710</v>
       </c>
       <c r="I511" t="n">
+        <v>113635.90625</v>
+      </c>
+      <c r="J511" t="n">
         <v>0.06610988080000001</v>
+      </c>
+      <c r="K511" t="n">
+        <v>6613</v>
       </c>
     </row>
     <row r="512">
@@ -15318,7 +18388,13 @@
         <v>8008</v>
       </c>
       <c r="I512" t="n">
+        <v>112575.39844</v>
+      </c>
+      <c r="J512" t="n">
         <v>0.06896998729999999</v>
+      </c>
+      <c r="K512" t="n">
+        <v>6899</v>
       </c>
     </row>
     <row r="513">
@@ -15347,7 +18423,13 @@
         <v>732</v>
       </c>
       <c r="I513" t="n">
+        <v>397257.59375</v>
+      </c>
+      <c r="J513" t="n">
         <v>0.0040699095</v>
+      </c>
+      <c r="K513" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="514">
@@ -15376,7 +18458,13 @@
         <v>69</v>
       </c>
       <c r="I514" t="n">
+        <v>8260802.5</v>
+      </c>
+      <c r="J514" t="n">
         <v>0.0002399478</v>
+      </c>
+      <c r="K514" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="515">
@@ -15405,7 +18493,13 @@
         <v>1243</v>
       </c>
       <c r="I515" t="n">
+        <v>239445.04688</v>
+      </c>
+      <c r="J515" t="n">
         <v>0.0076799863</v>
+      </c>
+      <c r="K515" t="n">
+        <v>770</v>
       </c>
     </row>
     <row r="516">
@@ -15434,7 +18528,13 @@
         <v>1802</v>
       </c>
       <c r="I516" t="n">
+        <v>183641.875</v>
+      </c>
+      <c r="J516" t="n">
         <v>0.0120297829</v>
+      </c>
+      <c r="K516" t="n">
+        <v>1205</v>
       </c>
     </row>
     <row r="517">
@@ -15463,7 +18563,13 @@
         <v>2377</v>
       </c>
       <c r="I517" t="n">
+        <v>157412.65625</v>
+      </c>
+      <c r="J517" t="n">
         <v>0.0168099161</v>
+      </c>
+      <c r="K517" t="n">
+        <v>1683</v>
       </c>
     </row>
     <row r="518">
@@ -15492,7 +18598,13 @@
         <v>2960</v>
       </c>
       <c r="I518" t="n">
+        <v>142851.10938</v>
+      </c>
+      <c r="J518" t="n">
         <v>0.0218598079</v>
+      </c>
+      <c r="K518" t="n">
+        <v>2188</v>
       </c>
     </row>
     <row r="519">
@@ -15521,7 +18633,13 @@
         <v>3546</v>
       </c>
       <c r="I519" t="n">
+        <v>134250.60938</v>
+      </c>
+      <c r="J519" t="n">
         <v>0.0270799734</v>
+      </c>
+      <c r="K519" t="n">
+        <v>2710</v>
       </c>
     </row>
     <row r="520">
@@ -15550,7 +18668,13 @@
         <v>4136</v>
       </c>
       <c r="I520" t="n">
+        <v>128729.41406</v>
+      </c>
+      <c r="J520" t="n">
         <v>0.0324297324</v>
+      </c>
+      <c r="K520" t="n">
+        <v>3245</v>
       </c>
     </row>
     <row r="521">
@@ -15579,7 +18703,13 @@
         <v>4728</v>
       </c>
       <c r="I521" t="n">
+        <v>124304.03125</v>
+      </c>
+      <c r="J521" t="n">
         <v>0.0378798097</v>
+      </c>
+      <c r="K521" t="n">
+        <v>3790</v>
       </c>
     </row>
     <row r="522">
@@ -15608,7 +18738,13 @@
         <v>5321</v>
       </c>
       <c r="I522" t="n">
+        <v>121037.11719</v>
+      </c>
+      <c r="J522" t="n">
         <v>0.0433998071</v>
+      </c>
+      <c r="K522" t="n">
+        <v>4342</v>
       </c>
     </row>
     <row r="523">
@@ -15637,7 +18773,13 @@
         <v>5915</v>
       </c>
       <c r="I523" t="n">
+        <v>118146.41406</v>
+      </c>
+      <c r="J523" t="n">
         <v>0.0489897616</v>
+      </c>
+      <c r="K523" t="n">
+        <v>4901</v>
       </c>
     </row>
     <row r="524">
@@ -15666,7 +18808,13 @@
         <v>6509</v>
       </c>
       <c r="I524" t="n">
+        <v>116205.64844</v>
+      </c>
+      <c r="J524" t="n">
         <v>0.0546099208</v>
+      </c>
+      <c r="K524" t="n">
+        <v>5463</v>
       </c>
     </row>
     <row r="525">
@@ -15695,7 +18843,13 @@
         <v>364</v>
       </c>
       <c r="I525" t="n">
+        <v>1218183.375</v>
+      </c>
+      <c r="J525" t="n">
         <v>0.0014998675</v>
+      </c>
+      <c r="K525" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="526">
@@ -15724,7 +18878,13 @@
         <v>7105</v>
       </c>
       <c r="I526" t="n">
+        <v>114639.50781</v>
+      </c>
+      <c r="J526" t="n">
         <v>0.0602697581</v>
+      </c>
+      <c r="K526" t="n">
+        <v>6029</v>
       </c>
     </row>
     <row r="527">
@@ -15753,7 +18913,13 @@
         <v>7700</v>
       </c>
       <c r="I527" t="n">
+        <v>113447.05469</v>
+      </c>
+      <c r="J527" t="n">
         <v>0.06593982130000001</v>
+      </c>
+      <c r="K527" t="n">
+        <v>6596</v>
       </c>
     </row>
     <row r="528">
@@ -15782,7 +18948,13 @@
         <v>7998</v>
       </c>
       <c r="I528" t="n">
+        <v>113025.28906</v>
+      </c>
+      <c r="J528" t="n">
         <v>0.06879985330000001</v>
+      </c>
+      <c r="K528" t="n">
+        <v>6882</v>
       </c>
     </row>
     <row r="529">
@@ -15811,7 +18983,13 @@
         <v>727</v>
       </c>
       <c r="I529" t="n">
+        <v>405085.90625</v>
+      </c>
+      <c r="J529" t="n">
         <v>0.00402983</v>
+      </c>
+      <c r="K529" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="530">
@@ -15840,7 +19018,13 @@
         <v>87</v>
       </c>
       <c r="I530" t="n">
+        <v>2222090</v>
+      </c>
+      <c r="J530" t="n">
         <v>0.00038997</v>
+      </c>
+      <c r="K530" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="531">
@@ -15869,7 +19053,13 @@
         <v>1657</v>
       </c>
       <c r="I531" t="n">
+        <v>133762</v>
+      </c>
+      <c r="J531" t="n">
         <v>0.0126599995</v>
+      </c>
+      <c r="K531" t="n">
+        <v>1268</v>
       </c>
     </row>
     <row r="532">
@@ -15898,7 +19088,13 @@
         <v>2247</v>
       </c>
       <c r="I532" t="n">
+        <v>123268</v>
+      </c>
+      <c r="J532" t="n">
         <v>0.0180500001</v>
+      </c>
+      <c r="K532" t="n">
+        <v>1807</v>
       </c>
     </row>
     <row r="533">
@@ -15927,7 +19123,13 @@
         <v>2841</v>
       </c>
       <c r="I533" t="n">
+        <v>117443</v>
+      </c>
+      <c r="J533" t="n">
         <v>0.0236300007</v>
+      </c>
+      <c r="K533" t="n">
+        <v>2365</v>
       </c>
     </row>
     <row r="534">
@@ -15956,7 +19158,13 @@
         <v>3436</v>
       </c>
       <c r="I534" t="n">
+        <v>114092</v>
+      </c>
+      <c r="J534" t="n">
         <v>0.0292700008</v>
+      </c>
+      <c r="K534" t="n">
+        <v>2929</v>
       </c>
     </row>
     <row r="535">
@@ -15985,7 +19193,13 @@
         <v>4032</v>
       </c>
       <c r="I535" t="n">
+        <v>111998</v>
+      </c>
+      <c r="J535" t="n">
         <v>0.0349799991</v>
+      </c>
+      <c r="K535" t="n">
+        <v>3500</v>
       </c>
     </row>
     <row r="536">
@@ -16014,7 +19228,13 @@
         <v>4629</v>
       </c>
       <c r="I536" t="n">
+        <v>110347</v>
+      </c>
+      <c r="J536" t="n">
         <v>0.0407399982</v>
+      </c>
+      <c r="K536" t="n">
+        <v>4076</v>
       </c>
     </row>
     <row r="537">
@@ -16043,7 +19263,13 @@
         <v>5227</v>
       </c>
       <c r="I537" t="n">
+        <v>108856</v>
+      </c>
+      <c r="J537" t="n">
         <v>0.0465300009</v>
+      </c>
+      <c r="K537" t="n">
+        <v>4655</v>
       </c>
     </row>
     <row r="538">
@@ -16072,7 +19298,13 @@
         <v>5824</v>
       </c>
       <c r="I538" t="n">
+        <v>108086</v>
+      </c>
+      <c r="J538" t="n">
         <v>0.0523499995</v>
+      </c>
+      <c r="K538" t="n">
+        <v>5237</v>
       </c>
     </row>
     <row r="539">
@@ -16101,7 +19333,13 @@
         <v>6422</v>
       </c>
       <c r="I539" t="n">
+        <v>107215</v>
+      </c>
+      <c r="J539" t="n">
         <v>0.0581899993</v>
+      </c>
+      <c r="K539" t="n">
+        <v>5821</v>
       </c>
     </row>
     <row r="540">
@@ -16130,7 +19368,13 @@
         <v>7020</v>
       </c>
       <c r="I540" t="n">
+        <v>106625.72656</v>
+      </c>
+      <c r="J540" t="n">
         <v>0.06403987849999999</v>
+      </c>
+      <c r="K540" t="n">
+        <v>6406</v>
       </c>
     </row>
     <row r="541">
@@ -16159,7 +19403,13 @@
         <v>510</v>
       </c>
       <c r="I541" t="n">
+        <v>268419</v>
+      </c>
+      <c r="J541" t="n">
         <v>0.0030596999</v>
+      </c>
+      <c r="K541" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="542">
@@ -16188,7 +19438,13 @@
         <v>7618</v>
       </c>
       <c r="I542" t="n">
+        <v>106026.17969</v>
+      </c>
+      <c r="J542" t="n">
         <v>0.0698999837</v>
+      </c>
+      <c r="K542" t="n">
+        <v>6992</v>
       </c>
     </row>
     <row r="543">
@@ -16217,7 +19473,13 @@
         <v>8216</v>
       </c>
       <c r="I543" t="n">
+        <v>105664.89844</v>
+      </c>
+      <c r="J543" t="n">
         <v>0.075779818</v>
+      </c>
+      <c r="K543" t="n">
+        <v>7580</v>
       </c>
     </row>
     <row r="544">
@@ -16246,7 +19508,13 @@
         <v>8515</v>
       </c>
       <c r="I544" t="n">
+        <v>105451.69531</v>
+      </c>
+      <c r="J544" t="n">
         <v>0.078719914</v>
+      </c>
+      <c r="K544" t="n">
+        <v>7874</v>
       </c>
     </row>
     <row r="545">
@@ -16275,7 +19543,13 @@
         <v>1072</v>
       </c>
       <c r="I545" t="n">
+        <v>159635</v>
+      </c>
+      <c r="J545" t="n">
         <v>0.0075297002</v>
+      </c>
+      <c r="K545" t="n">
+        <v>755</v>
       </c>
     </row>
     <row r="546">
@@ -16304,7 +19578,13 @@
         <v>70</v>
       </c>
       <c r="I546" t="n">
+        <v>8233106.5</v>
+      </c>
+      <c r="J546" t="n">
         <v>0.0002399929</v>
+      </c>
+      <c r="K546" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="547">
@@ -16333,7 +19613,13 @@
         <v>1239</v>
       </c>
       <c r="I547" t="n">
+        <v>240806.42188</v>
+      </c>
+      <c r="J547" t="n">
         <v>0.0076499949</v>
+      </c>
+      <c r="K547" t="n">
+        <v>767</v>
       </c>
     </row>
     <row r="548">
@@ -16362,7 +19648,13 @@
         <v>1798</v>
       </c>
       <c r="I548" t="n">
+        <v>184159.04688</v>
+      </c>
+      <c r="J548" t="n">
         <v>0.0119898142</v>
+      </c>
+      <c r="K548" t="n">
+        <v>1201</v>
       </c>
     </row>
     <row r="549">
@@ -16391,7 +19683,13 @@
         <v>2373</v>
       </c>
       <c r="I549" t="n">
+        <v>157666.48438</v>
+      </c>
+      <c r="J549" t="n">
         <v>0.0167598128</v>
+      </c>
+      <c r="K549" t="n">
+        <v>1678</v>
       </c>
     </row>
     <row r="550">
@@ -16420,7 +19718,13 @@
         <v>2955</v>
       </c>
       <c r="I550" t="n">
+        <v>143190.59375</v>
+      </c>
+      <c r="J550" t="n">
         <v>0.0218099635</v>
+      </c>
+      <c r="K550" t="n">
+        <v>2183</v>
       </c>
     </row>
     <row r="551">
@@ -16449,7 +19753,13 @@
         <v>3542</v>
       </c>
       <c r="I551" t="n">
+        <v>134223.6875</v>
+      </c>
+      <c r="J551" t="n">
         <v>0.0270297285</v>
+      </c>
+      <c r="K551" t="n">
+        <v>2705</v>
       </c>
     </row>
     <row r="552">
@@ -16478,7 +19788,13 @@
         <v>4131</v>
       </c>
       <c r="I552" t="n">
+        <v>128166.36719</v>
+      </c>
+      <c r="J552" t="n">
         <v>0.0323799439</v>
+      </c>
+      <c r="K552" t="n">
+        <v>3240</v>
       </c>
     </row>
     <row r="553">
@@ -16507,7 +19823,13 @@
         <v>4723</v>
       </c>
       <c r="I553" t="n">
+        <v>124076.57031</v>
+      </c>
+      <c r="J553" t="n">
         <v>0.0378097706</v>
+      </c>
+      <c r="K553" t="n">
+        <v>3783</v>
       </c>
     </row>
     <row r="554">
@@ -16536,7 +19858,13 @@
         <v>5316</v>
       </c>
       <c r="I554" t="n">
+        <v>120710.33594</v>
+      </c>
+      <c r="J554" t="n">
         <v>0.043339733</v>
+      </c>
+      <c r="K554" t="n">
+        <v>4336</v>
       </c>
     </row>
     <row r="555">
@@ -16565,7 +19893,13 @@
         <v>5910</v>
       </c>
       <c r="I555" t="n">
+        <v>118368.74219</v>
+      </c>
+      <c r="J555" t="n">
         <v>0.0488999523</v>
+      </c>
+      <c r="K555" t="n">
+        <v>4892</v>
       </c>
     </row>
     <row r="556">
@@ -16594,7 +19928,13 @@
         <v>6504</v>
       </c>
       <c r="I556" t="n">
+        <v>116314.86719</v>
+      </c>
+      <c r="J556" t="n">
         <v>0.0545299239</v>
+      </c>
+      <c r="K556" t="n">
+        <v>5455</v>
       </c>
     </row>
     <row r="557">
@@ -16623,7 +19963,13 @@
         <v>364</v>
       </c>
       <c r="I557" t="n">
+        <v>1205684.625</v>
+      </c>
+      <c r="J557" t="n">
         <v>0.0014999149</v>
+      </c>
+      <c r="K557" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="558">
@@ -16652,7 +19998,13 @@
         <v>7100</v>
       </c>
       <c r="I558" t="n">
+        <v>115192.14844</v>
+      </c>
+      <c r="J558" t="n">
         <v>0.0601698458</v>
+      </c>
+      <c r="K558" t="n">
+        <v>6019</v>
       </c>
     </row>
     <row r="559">
@@ -16681,7 +20033,13 @@
         <v>7695</v>
       </c>
       <c r="I559" t="n">
+        <v>113860.53906</v>
+      </c>
+      <c r="J559" t="n">
         <v>0.065859735</v>
+      </c>
+      <c r="K559" t="n">
+        <v>6588</v>
       </c>
     </row>
     <row r="560">
@@ -16710,7 +20068,13 @@
         <v>7993</v>
       </c>
       <c r="I560" t="n">
+        <v>113128.09375</v>
+      </c>
+      <c r="J560" t="n">
         <v>0.06870997700000001</v>
+      </c>
+      <c r="K560" t="n">
+        <v>6873</v>
       </c>
     </row>
     <row r="561">
@@ -16739,7 +20103,13 @@
         <v>725</v>
       </c>
       <c r="I561" t="n">
+        <v>409020.71875</v>
+      </c>
+      <c r="J561" t="n">
         <v>0.0040099868</v>
+      </c>
+      <c r="K561" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="562">
@@ -16768,7 +20138,13 @@
         <v>62</v>
       </c>
       <c r="I562" t="n">
+        <v>2486120</v>
+      </c>
+      <c r="J562" t="n">
         <v>0.00036996</v>
+      </c>
+      <c r="K562" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="563">
@@ -16797,7 +20173,13 @@
         <v>1621</v>
       </c>
       <c r="I563" t="n">
+        <v>139422</v>
+      </c>
+      <c r="J563" t="n">
         <v>0.0121400002</v>
+      </c>
+      <c r="K563" t="n">
+        <v>1216</v>
       </c>
     </row>
     <row r="564">
@@ -16826,7 +20208,13 @@
         <v>2211</v>
       </c>
       <c r="I564" t="n">
+        <v>126701</v>
+      </c>
+      <c r="J564" t="n">
         <v>0.0174800009</v>
+      </c>
+      <c r="K564" t="n">
+        <v>1750</v>
       </c>
     </row>
     <row r="565">
@@ -16855,7 +20243,13 @@
         <v>2804</v>
       </c>
       <c r="I565" t="n">
+        <v>119868</v>
+      </c>
+      <c r="J565" t="n">
         <v>0.0229899995</v>
+      </c>
+      <c r="K565" t="n">
+        <v>2301</v>
       </c>
     </row>
     <row r="566">
@@ -16884,7 +20278,13 @@
         <v>3398</v>
       </c>
       <c r="I566" t="n">
+        <v>116154</v>
+      </c>
+      <c r="J566" t="n">
         <v>0.0285999998</v>
+      </c>
+      <c r="K566" t="n">
+        <v>2862</v>
       </c>
     </row>
     <row r="567">
@@ -16913,7 +20313,13 @@
         <v>3994</v>
       </c>
       <c r="I567" t="n">
+        <v>112944</v>
+      </c>
+      <c r="J567" t="n">
         <v>0.0342999995</v>
+      </c>
+      <c r="K567" t="n">
+        <v>3432</v>
       </c>
     </row>
     <row r="568">
@@ -16942,7 +20348,13 @@
         <v>4590</v>
       </c>
       <c r="I568" t="n">
+        <v>111361</v>
+      </c>
+      <c r="J568" t="n">
         <v>0.0400200002</v>
+      </c>
+      <c r="K568" t="n">
+        <v>4004</v>
       </c>
     </row>
     <row r="569">
@@ -16971,7 +20383,13 @@
         <v>5187</v>
       </c>
       <c r="I569" t="n">
+        <v>109859</v>
+      </c>
+      <c r="J569" t="n">
         <v>0.0457900017</v>
+      </c>
+      <c r="K569" t="n">
+        <v>4581</v>
       </c>
     </row>
     <row r="570">
@@ -17000,7 +20418,13 @@
         <v>5784</v>
       </c>
       <c r="I570" t="n">
+        <v>108594</v>
+      </c>
+      <c r="J570" t="n">
         <v>0.0516100004</v>
+      </c>
+      <c r="K570" t="n">
+        <v>5163</v>
       </c>
     </row>
     <row r="571">
@@ -17029,7 +20453,13 @@
         <v>6382</v>
       </c>
       <c r="I571" t="n">
+        <v>107839</v>
+      </c>
+      <c r="J571" t="n">
         <v>0.0573999994</v>
+      </c>
+      <c r="K571" t="n">
+        <v>5742</v>
       </c>
     </row>
     <row r="572">
@@ -17058,7 +20488,13 @@
         <v>6980</v>
       </c>
       <c r="I572" t="n">
+        <v>107292.28906</v>
+      </c>
+      <c r="J572" t="n">
         <v>0.06323993949999999</v>
+      </c>
+      <c r="K572" t="n">
+        <v>6326</v>
       </c>
     </row>
     <row r="573">
@@ -17087,7 +20523,13 @@
         <v>485</v>
       </c>
       <c r="I573" t="n">
+        <v>302001</v>
+      </c>
+      <c r="J573" t="n">
         <v>0.0028398</v>
+      </c>
+      <c r="K573" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="574">
@@ -17116,7 +20558,13 @@
         <v>7577</v>
       </c>
       <c r="I574" t="n">
+        <v>106685.08594</v>
+      </c>
+      <c r="J574" t="n">
         <v>0.0690899789</v>
+      </c>
+      <c r="K574" t="n">
+        <v>6911</v>
       </c>
     </row>
     <row r="575">
@@ -17145,7 +20593,13 @@
         <v>8176</v>
       </c>
       <c r="I575" t="n">
+        <v>106116.78906</v>
+      </c>
+      <c r="J575" t="n">
         <v>0.0749596879</v>
+      </c>
+      <c r="K575" t="n">
+        <v>7498</v>
       </c>
     </row>
     <row r="576">
@@ -17174,7 +20628,13 @@
         <v>8475</v>
       </c>
       <c r="I576" t="n">
+        <v>105965.99219</v>
+      </c>
+      <c r="J576" t="n">
         <v>0.0778899193</v>
+      </c>
+      <c r="K576" t="n">
+        <v>7791</v>
       </c>
     </row>
     <row r="577">
@@ -17203,7 +20663,13 @@
         <v>1040</v>
       </c>
       <c r="I577" t="n">
+        <v>169580</v>
+      </c>
+      <c r="J577" t="n">
         <v>0.0071299998</v>
+      </c>
+      <c r="K577" t="n">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
